--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\vr-common-library\input\mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96A2FA4-A877-4EC8-BC78-38CB196FA6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64438EE3-B439-4A2F-969D-3FF1BEBAFCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="300">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -548,6 +549,420 @@
   </si>
   <si>
     <t>In cases where multiple races are recorded for a person an algorithm (NCHS defined) is used to select a single race. The goal is to provide race statistics that are comparable with those used historically to facilitate time series analysis. The goal is to maintain consistency between data collected after the definitional change (allowing collection of multiple races and ethnicities) and that collected prior to that time. This intent is to maintain the integrity of time series (data collected from a range of time periods) reporting.</t>
+  </si>
+  <si>
+    <t>BundleDocumentBFDR</t>
+  </si>
+  <si>
+    <t>CompositionCodedCauseOfFetalDeath</t>
+  </si>
+  <si>
+    <t>CompositionCodedRaceAndEthnicity</t>
+  </si>
+  <si>
+    <t>CompositionJurisdictionFetalDeathReport</t>
+  </si>
+  <si>
+    <t>CompositionJurisdictionLiveBirthReport</t>
+  </si>
+  <si>
+    <t>CompositionProviderFetalDeathReport</t>
+  </si>
+  <si>
+    <t>CompositionProviderLiveBirthReport</t>
+  </si>
+  <si>
+    <t>ConditionCodedInitiatingFetalDeathCauseOrCondition</t>
+  </si>
+  <si>
+    <t>ConditionCodedOtherFetalDeathCauseOrCondition</t>
+  </si>
+  <si>
+    <t>ConditionCongenitalAnomalyOfNewborn</t>
+  </si>
+  <si>
+    <t>ConditionFetalDeathCauseOrCondition</t>
+  </si>
+  <si>
+    <t>ConditionFetalDeathOtherCauseOrCondition</t>
+  </si>
+  <si>
+    <t>ConditionInfectionPresentDuringPregnancy</t>
+  </si>
+  <si>
+    <t>ExtensionDateFiledByRegistrar</t>
+  </si>
+  <si>
+    <t>ExtensionDateReceivedByRegistrar</t>
+  </si>
+  <si>
+    <t>ExtensionEncounterMaternityReference</t>
+  </si>
+  <si>
+    <t>ExtensionFetalDeathLocalFileNumber</t>
+  </si>
+  <si>
+    <t>ExtensionFetalDeathReportNumber</t>
+  </si>
+  <si>
+    <t>ExtensionLiveBirthCertificateNumber</t>
+  </si>
+  <si>
+    <t>ExtensionLiveBirthLocalFileNumber</t>
+  </si>
+  <si>
+    <t>ExtensionReplacementBFDR</t>
+  </si>
+  <si>
+    <t>ObservationAutopsyHistologicalExamResultsUsed</t>
+  </si>
+  <si>
+    <t>ObservationCigaretteSmokingBeforeDuringPregnancy</t>
+  </si>
+  <si>
+    <t>ObservationDateOfFirstPrenatalCareVisit</t>
+  </si>
+  <si>
+    <t>ObservationDateOfLastLiveBirth</t>
+  </si>
+  <si>
+    <t>ObservationDateOfLastOtherPregnancyOutcome</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagBirthweight</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagEstimateOfGestation</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagFathersDateOfBirth</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagFathersEducation</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagMothersDateOfBirth</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagMothersDeliveryWeight</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagMothersEducation</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagMothersHeight</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagMothersPrepregnancyWeight</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagNumberPrenatalCareVisits</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagNumberPreviousCesareans</t>
+  </si>
+  <si>
+    <t>ObservationEditFlagPlurality</t>
+  </si>
+  <si>
+    <t>ObservationHistologicalPlacentalExamPerformed</t>
+  </si>
+  <si>
+    <t>ObservationInfantBreastfedAtDischarge</t>
+  </si>
+  <si>
+    <t>ObservationLaborTrialAttempted</t>
+  </si>
+  <si>
+    <t>ObservationMethodOfDisposition</t>
+  </si>
+  <si>
+    <t>ObservationMotherMarriedDuringPregnancy</t>
+  </si>
+  <si>
+    <t>ObservationNoneOfSpecifiedAbnormalConditionsOfNewborn</t>
+  </si>
+  <si>
+    <t>ObservationNoneOfSpecifiedCharacteristicsLaborDelivery</t>
+  </si>
+  <si>
+    <t>ObservationNoneOfSpecifiedMaternalMorbidities</t>
+  </si>
+  <si>
+    <t>ObservationPaternityAcknowledgementSigned</t>
+  </si>
+  <si>
+    <t>ObservationPlannedToDeliverAtHome</t>
+  </si>
+  <si>
+    <t>ObservationSteroidsFetalLungMaturation</t>
+  </si>
+  <si>
+    <t>ProcedureAntibioticSuspectedNeonatalSepsis</t>
+  </si>
+  <si>
+    <t>ProcedureAssistedVentilationFollowingDelivery</t>
+  </si>
+  <si>
+    <t>ProcedureAssistedVentilationMoreThanSixHours</t>
+  </si>
+  <si>
+    <t>ProcedureAugmentationOfLabor</t>
+  </si>
+  <si>
+    <t>ProcedureEpiduralOrSpinalAnesthesia</t>
+  </si>
+  <si>
+    <t>ProcedureFinalRouteMethodDelivery</t>
+  </si>
+  <si>
+    <t>ProcedureInductionOfLabor</t>
+  </si>
+  <si>
+    <t>ProcedureSurfactantReplacementTherapy</t>
+  </si>
+  <si>
+    <t>ConditionChorioamnionitis</t>
+  </si>
+  <si>
+    <t>ConditionSeizure</t>
+  </si>
+  <si>
+    <t>EncounterBirth</t>
+  </si>
+  <si>
+    <t>ProcedureObstetric</t>
+  </si>
+  <si>
+    <t>ConditionRupturedUterus</t>
+  </si>
+  <si>
+    <t>ObservationFetalPresentation</t>
+  </si>
+  <si>
+    <t>ProcedureBloodTransfusion</t>
+  </si>
+  <si>
+    <t>ProcedureUnplannedHysterectomy</t>
+  </si>
+  <si>
+    <t>ConditionEclampsiaHypertensionVitalRecords</t>
+  </si>
+  <si>
+    <t>PatientMotherVitalRecords</t>
+  </si>
+  <si>
+    <t>PractitionerVitalRecords</t>
+  </si>
+  <si>
+    <t>ProcedureArtificialInseminationVitalRecords</t>
+  </si>
+  <si>
+    <t>ProcedureAssistedFertilizationVitalRecords</t>
+  </si>
+  <si>
+    <t>ProcedureDeathCertificationVitalRecords</t>
+  </si>
+  <si>
+    <t>ProcedureInfertilityTreatmentVitalRecords</t>
+  </si>
+  <si>
+    <t>RelatedpersonFatherNaturalVitalRecords</t>
+  </si>
+  <si>
+    <t>RelatedPersonFatherVitalRecords</t>
+  </si>
+  <si>
+    <t>RelatedpersonMotherGestationalVitalRecords</t>
+  </si>
+  <si>
+    <t>RelatedPersonMotherVitalRecords</t>
+  </si>
+  <si>
+    <t>RelatedPersonParentVitalRecords</t>
+  </si>
+  <si>
+    <t>PatientDecedentFetusVitalRecords</t>
+  </si>
+  <si>
+    <t>PatientChildVitalRecords</t>
+  </si>
+  <si>
+    <t>ParametersCodingStatusValuesVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationTobaccoUseContributedToDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationTabulatedEthnicityVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationRaceVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationPreviousPretermBirthVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationPreviousCesareanVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationPluralityVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationParentEducationLevelVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationNumberPreviousCesareansVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationNumberPrenatalVisitsVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationNumberOtherPregnancyOutcomesVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationNumberLiveBirthsThisDeliveryVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationNumberFetalDeathsThisDeliveryVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationNumberBirthsNowLivingVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationNumberBirthsNowDeadVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationNoneOfSpecifiedPregnancyRiskFactorsVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationMotherPrepregnancyWeightVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationMotherHeightVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationMotherDeliveryWeightVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationMannerOfDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationLastMenstrualPeriodVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationInjuryIncidentVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationInfantLivingVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationGestationalAgeAtDeliveryVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationDecedentPregnancyVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationDeathDateVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationContributingCauseOfDeathPartVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationCauseOfDeathPartVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationBirthWeightVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationAutopsyPerformedIndicatorVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationApgarScoreVitalRecords</t>
+  </si>
+  <si>
+    <t>LocationInjuryVitalRecords</t>
+  </si>
+  <si>
+    <t>LocationDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionWithinCityLimitsIndicatorVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionReportedParentAgeAtDeliveryVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionRelatedpersonDeceasedVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionRelatedpersonBirthplaceVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionPatientFetalDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionPartialDateVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionPartialDateTimeVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionDateYearVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionDateTimeVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionDatePartAbsentReasonVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionDateMonthVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionDateDayVitalRecords</t>
+  </si>
+  <si>
+    <t>ConditionPrepregnancyHypertensionVitalRecords</t>
+  </si>
+  <si>
+    <t>ConditionPrepregnancyDiabetesVitalRecords</t>
+  </si>
+  <si>
+    <t>ConditionGestationalHypertensionVitalRecords</t>
+  </si>
+  <si>
+    <t>ConditionGestationalDiabetesVitalRecords</t>
+  </si>
+  <si>
+    <t>Profile Name Condensed</t>
+  </si>
+  <si>
+    <t>ObservationAntibioticsAdministeredDuringLabor</t>
+  </si>
+  <si>
+    <t>ConditionPerinealLaceration</t>
+  </si>
+  <si>
+    <t>CoveragePrincipalPayerDelivery</t>
+  </si>
+  <si>
+    <t>Encounter_Maternity</t>
+  </si>
+  <si>
+    <t>ObservationICUAdmission</t>
+  </si>
+  <si>
+    <t>ObservationMotherReceivedWICFood</t>
+  </si>
+  <si>
+    <t>ObservationFetalDeathTimePoint</t>
+  </si>
+  <si>
+    <t>ObservationNICUAdmission</t>
+  </si>
+  <si>
+    <t>ObservationSSNRequestedForChild</t>
   </si>
 </sst>
 </file>
@@ -915,1781 +1330,2196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="154" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="53.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D9" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D12" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D13" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D14" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D15" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D16" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D17" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D18" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D19" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D20" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D21" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D22" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D23" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D25" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D26" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D27" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D28" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D30" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D31" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D32" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D34" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D35" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D48" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D49" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D50" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D51" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D52" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D53" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D54" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D55" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D57" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D58" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D59" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D60" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D61" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D62" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D63" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D64" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D65" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D66" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D67" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D68" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D69" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D70" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D71" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D72" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D73" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D74" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D75" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D76" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D77" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D78" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D79" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D80" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D89" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D92" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D95" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D96" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D97" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D102" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D103" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D105" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D107" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D108" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D109" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D110" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D111" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D112" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D113" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D114" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D115" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D116" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D117" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D118" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D120" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D121" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="F125" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D126" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D127" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D128" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D129" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D130" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D131" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D133" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D134" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>138</v>
       </c>
     </row>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A8BF83-F95A-481C-9E58-8A59C2325C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14492F7-1A6F-4E32-B43E-D856E3156392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="401">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Composition-coded-cause-of-fetal-death</t>
   </si>
   <si>
-    <t>Composition-coded-race-and-ethnicity</t>
-  </si>
-  <si>
     <t>Composition-jurisdiction-fetal-death-report</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
   </si>
   <si>
     <t>Observation-previous-preterm-birth-vr</t>
-  </si>
-  <si>
-    <t>Observation-race-vr</t>
   </si>
   <si>
     <t>Observation-tabulated-ethnicity-vr</t>
@@ -560,9 +554,6 @@
     <t>CompositionCodedCauseOfFetalDeath</t>
   </si>
   <si>
-    <t>CompositionCodedRaceAndEthnicity</t>
-  </si>
-  <si>
     <t>CompositionJurisdictionFetalDeathReport</t>
   </si>
   <si>
@@ -797,9 +788,6 @@
     <t>ObservationTabulatedEthnicityVitalRecords</t>
   </si>
   <si>
-    <t>ObservationRaceVitalRecords</t>
-  </si>
-  <si>
     <t>ObservationPreviousPretermBirthVitalRecords</t>
   </si>
   <si>
@@ -1110,6 +1098,307 @@
   </si>
   <si>
     <t>VRDR</t>
+  </si>
+  <si>
+    <t>The Death Certificate profile is a composition (bundle) comprising the core content of a death registration.
+Notes:
+* THe DeathCertificate is the first entry in the DeathCertificateDocument, and includes references to other entries in that Bundle.
+Additional content can be included in the Death Certificate Document and referenced in the Death Certificate  based on standard resources and profiles.
+Further profiling of Practitioner and PractitionerRole may be called for in the future.   At present, standard USCore profiles can be used, and these are not cited in this Implementation Guide.
+For example:
+* Funeral Home Licensee (USCorePractitionerRole)
+* Mortician (USCorePractitioner)
+* Funeral Home Director (USCorePractitionerRole)
+* Death Pronouncement Performer (USCorePractitioner)
+The content is broken down into the following sections:
+* Decedent Demographics
+    * [BirthRecordIdentifier]
+    * [Decedent]
+    * [DecedentAge]
+    * [DecedentEducationLevel]
+    * [DecedentFather]
+    * [DecedentMilitaryService]
+    * [EmergingIssues]
+    * [DecedentMother]
+    * [DecedentSpouse]
+    * [DecedentUsualWork]
+* Death Investigation
+    * [AutopsyPerformedIndicator]
+    * [DeathDate]
+    * [DeathLocation]
+    * [DecedentPregnancyStatus]
+    * [ExaminerContacted]
+    * [InjuryIncident]
+    * [InjuryLocation]
+    * [SurgeryDate]
+    * [TobaccoUseContributedToDeath]
+* Death Certification
+    * [Certifier]
+    * [DeathCertification]
+    * [CauseOfDeathPart1]
+    * [CauseOfDeathPart2]
+    * [MannerOfDeath]
+* Decedent Disposition
+    * [DecedentDispositionMethod]
+    * [DispositionLocation]
+    * [FuneralHome]
+* Coded Content
+    * [ActivityAtTimeOfDeath]
+    * [AutomatedUnderlyingCauseOfDeath]
+    * [ManualUnderlyingCauseOfDeath]
+    * [CodedRaceAndEthnicity]
+    * [EntityAxisCauseOfDeath]
+    * [RecordAxisCauseOfDeath]
+    * [PlaceOfInjury]
+    * [CodingStatusValues]
+**Note:**
+For NCHS submissions the replacement record status (REPLACE) has been deprecated within the VRDR IG, and this field be ignored.
+The replacement status of a submission is now specified as a message parameter and described in the [NCHS Vital Records Messaging IG].
+The profile includes:</t>
+  </si>
+  <si>
+    <t>The Autopsy Performed Indicator profile captures the following values:</t>
+  </si>
+  <si>
+    <t>The BirthRecordIdentifier captures the key identifiers for the Decedent's birth record. It is relevant only in the case where the birth took place in a recognized jurisdiction.</t>
+  </si>
+  <si>
+    <t>The [Certifier] is optionally referenced from this profile (performer).</t>
+  </si>
+  <si>
+    <t>Note: The Certifier profile is based on the [US Core Practitioner](http://hl7.org/fhir/us/core/STU5.0.1/StructureDefinition-us-core-practitioner.html) which requires an identifier be included.
+The death record submission process does not require an identifier.  As a result, death record submissions that are complete will be flagged as invalid by the FHIR validator, unless they include
+an identifier.</t>
+  </si>
+  <si>
+    <t>The Death Certificate is a Bundle document that contains the [DeathCertificate] Composition and the other instances comprising the content of the death record.
+  Notes:
+  * The DeathCertification.performed and DeathCertificateDocument.attester.time should both be set to the death certification time.
+  * THe DeathCertificate is the first entry in the DeathCertificateDocument, and includes references to other entries in that Bundle.
+  * The unique record identifier for every record consistes of YYYYJJFFFFFF, where YYYY is the year, JJ is the two character jurisdiction code, and FFFFFF is the six digit death certificate number.
+In addition to  the [DeathCertificate] Composition it includes the following content:</t>
+  </si>
+  <si>
+    <t>The profile includes a component for the time of death pronouncement that is not currently used for death certificate submission.
+  The certificate signing date is passed via the [DeathCertification] profile.
+  The death date specifies the date the death occurred, not the date the record was submitted.
+  The pronouncer of death can be specified by reference to a USCore Practitioner instance from the 'performer' field.   This instance should be included in the [DeathCertificateDocument] and referenced from the [DeathCertificate].
+  The method of date of death determination is not used for the Death Record submission process, and thus does not appear in the table below.  The binding
+  to [DateOfDeathDeterminationMethodsVS] is included for compatibility with the Medicolegal Death Investigation ([MDI]) Implementation Guide.  The valueset only
+includes the values used by MDI, but is bound [extensibly](http://hl7.org/fhir/R4/terminologies.html#extensible).  If a jurisdiction chooses to use this field, and requires additional values (e.g., 'presumed'), these values can be used
+while remaining in full conformance with the VRDR IG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Note:
+  * The DeathCertification.performed and DeathCertificateDocument.attester.time should both be set to the death certification time.
+  * The DeathCertification.performer.actor is required by the [USCore Procedure Profile](http://hl7.org/fhir/us/core/STU5.0.1/StructureDefinition-us-core-procedure.html),
+  but is not required by the death record submission use case.
+  The Death Certification profile includes:</t>
+  </si>
+  <si>
+    <t>The Decedent profile contains basic information about the decedent, including data that are essential to the death record.
+  Note: The Decedent profile is based on the [US Core Patient Profile](http://hl7.org/fhir/us/core/STU5.0.1/StructureDefinition-us-core-patient.html) which requires gender.
+  The death record submission use case uses NCHS's definition of sex at time of death which is different than gender.  Complete death record submissions may fail FHIR validation
+  due to lack of a value for gender.</t>
+  </si>
+  <si>
+    <t>The DecedentAge profile of Observation records the decedents age at time of death.
+  Notes:
+  * When present, the effective date of this observation shall be equal to the decedent's date of death.
+  * Age is derived as the difference in time between the decedent's death date and birth date.  Age is an integer value, reported in the largest appropriate unit.
+  An age of 1 year and 1 month should be reported as 1 year, not 13 months, or 1.083 years.  Although the FHIR quantity provides a decimal value, only the integer component
+  of the value will be used by NCHS.
+  * The appropriate units for age are defined here:
+  |  Age Range  | Units |
+  |:---:|:---:|
+  | age &lt; 1 hr | minutes |
+  | 1 hr &amp;le; age &lt; 24 hours | hours |
+  | 1 day &amp;le; age &lt; 28 days (1 \"month\") | days |
+  | 1 month &amp;le;  age  &lt; 12 months | months |
+  | 1 year &amp;le; age &amp;le; 135 | years|
+  | age unknown | unknown |
+  {: .grid }
+  The Decedent Age profile includes:</t>
+  </si>
+  <si>
+    <t>Implementors are free to use the coded fields with the defined valuesets for inter-jurisdictional exchange,
+  but coded values are not expected for death certificate submission. The underlying profile requires coded
+  values for validity, so a null flavor value can be used as in Example1. Similarly the effective period is required,
+  and null flavor values can be substituted.  These constraints are expected to be relaxed in the ODH Usual Work profile prior
+  to VRDR publication.
+  Note that the coded industry and occupation fields are bound to PHINVADs-hosted value sets.  These are the only PHINVADs
+  references in this IG.  For NCHS provided coded values the specific vocabulary used will depend on the death year.</t>
+  </si>
+  <si>
+    <t>Implementors are free to use the name field for the name of the disposition location.</t>
+  </si>
+  <si>
+    <t>A reference to the [Certifier] may be provided through the performer field.</t>
+  </si>
+  <si>
+    <t>EmergingIssues profile supports placeholder fields required for 2022 submissions to NCHS.
+                For documentation on their use see referenceTBD.
+                There are 6 1-char fields (PLACE1_1-6), 3 8-char fields (PLACE8_1-3), and one 20-char field (PLACE20-1).</t>
+  </si>
+  <si>
+    <t>This bundle is information-content equivalent to the traditional NCHS TRX format.
+  This bundle contains:
+  * Coded Content:
+    * Activity at Time of Death [ActivityAtTimeOfDeath]
+    * Underlying Cause of Death -- [AutomatedUnderlyingCauseOfDeath] and [ManualUnderlyingCauseOfDeath]
+    * Entity Axis Cause of Death [EntityAxisCauseOfDeath]
+    * Record Axis Cause of Death [RecordAxisCauseOfDeath]
+    * Place of Injury [PlaceOfInjury]
+    * Coding Status Values [CodingStatusValues] - various flags that are part of the TRX format
+  * Input Content:
+    * Cause of Death Part 1 - [CauseOfDeathPart1]
+    * Cause of Death Part 2 - [CauseOfDeathPart2]
+    * Manner of Death - [MannerOfDeath]
+    * Autopsy Performed Indicator - [AutopsyPerformedIndicator]
+    * Death Certification - [DeathCertification]
+    * Injury Incident - [InjuryIncident]
+    * Tobacco Use Contributed to Death - [TobaccoUseContributedToDeath]
+    * Decedent Pregnancy Status - [DecedentPregnancyStatus]
+    * Surgery Date - [SurgeryDate]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  This bundle is information-content equivalent to the traditional NCHS MRE format.
+  This bundle contains:
+  * Coded Content:
+    * Coded Race and Ethnicity [CodedRaceAndEthnicity]
+  * Input Content:
+    * Input Race and Ethnicity - [InputRaceAndEthnicity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   Additional information on Record Axis Cause of death can be found in the case of multiple causes of death can be found in this CDC [publication](https://www.cdc.gov/nchs/data/dvs/Multiple-Cause-Record-Layout-2020.pdf)
+.  Previously a subset of records classified to ICD-10 CHAPTER XV - Pregnancy, childbirth and the puerperium (O00-O99) were flagged by the presence of a '1' in the 5th position of the 2nd condition (position = 2).
+These are instances where a decedent &lt; 45 years of age has been classified as a maternal
+death using input from the information entered in the [DecedentPregnancyStatus], and the 2nd condition represents the cause of death
+to which the given record would be classified had the causes of death been processed without [National Vital Statistics Reports Volume 69, Number 2 January, 2020 (cdc.gov)](https://www.cdc.gov/nchs/data/nvsr/nvsr69/nvsr69-02-508.pdf).
+In the FHIR encoding, in lieu of using the 5th position of the ICD10 code, a flag has been added to each Record Cause of Death condition that should be set to true in these cases, and should be absent or false elsewhere.
+* insert RequireMetaProfile(Profile: RecordAxisCauseOfDeath)</t>
+  </si>
+  <si>
+    <t>vrdr-autopsy-performed-indicator</t>
+  </si>
+  <si>
+    <t>vrdr-birth-record-identifier</t>
+  </si>
+  <si>
+    <t>vrdr-cause-of-death-part1</t>
+  </si>
+  <si>
+    <t>vrdr-cause-of-death-part2</t>
+  </si>
+  <si>
+    <t>vrdr-certifier</t>
+  </si>
+  <si>
+    <t>vrdr-death-certificate</t>
+  </si>
+  <si>
+    <t>vrdr-death-certificate-document</t>
+  </si>
+  <si>
+    <t>vrdr-death-date</t>
+  </si>
+  <si>
+    <t>vrdr-death-certification</t>
+  </si>
+  <si>
+    <t>vrdr-death-location</t>
+  </si>
+  <si>
+    <t>vrdr-decedent</t>
+  </si>
+  <si>
+    <t>vrdr-decedent-age</t>
+  </si>
+  <si>
+    <t>vrdr-decedent-disposition-method</t>
+  </si>
+  <si>
+    <t>vrdr-decedent-education-level</t>
+  </si>
+  <si>
+    <t>vrdr-decedent-father</t>
+  </si>
+  <si>
+    <t>vrdr-decedent-military-service</t>
+  </si>
+  <si>
+    <t>vrdr-decedent-mother</t>
+  </si>
+  <si>
+    <t>vrdr-decedent-spouse</t>
+  </si>
+  <si>
+    <t>vrdr-decedent-pregnancy-status</t>
+  </si>
+  <si>
+    <t>vrdr-decedent-usual-work</t>
+  </si>
+  <si>
+    <t>vrdr-disposition-location</t>
+  </si>
+  <si>
+    <t>vrdr-emerging-issues</t>
+  </si>
+  <si>
+    <t>vrdr-examiner-contacted</t>
+  </si>
+  <si>
+    <t>vrdr-funeral-home</t>
+  </si>
+  <si>
+    <t>vrdr-injury-incident</t>
+  </si>
+  <si>
+    <t>vrdr-injury-location</t>
+  </si>
+  <si>
+    <t>vrdr-input-race-and-ethnicity</t>
+  </si>
+  <si>
+    <t>vrdr-manner-of-death</t>
+  </si>
+  <si>
+    <t>vrdr-surgery-date</t>
+  </si>
+  <si>
+    <t>vrdr-tobacco-use-contributed-to-death</t>
+  </si>
+  <si>
+    <t>vrdr-activity-at-time-of-death</t>
+  </si>
+  <si>
+    <t>vrdr-automated-underlying-cause-of-death</t>
+  </si>
+  <si>
+    <t>vrdr-manual-underlying-cause-of-death</t>
+  </si>
+  <si>
+    <t>vrdr-record-axis-cause-of-death</t>
+  </si>
+  <si>
+    <t>vrdr-entity-axis-cause-of-death</t>
+  </si>
+  <si>
+    <t>vrdr-place-of-injury</t>
+  </si>
+  <si>
+    <t>vrdr-coded-race-and-ethnicity</t>
+  </si>
+  <si>
+    <t>vrdr-coding-status-values</t>
+  </si>
+  <si>
+    <t>vrdr-cause-of-death-coded-content-bundle</t>
+  </si>
+  <si>
+    <t>vrdr-demographic-coded-content-bundle</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1178,6 +1467,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,9 +1796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,28 +1816,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1543,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1560,19 +1862,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1580,19 +1882,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="270" x14ac:dyDescent="0.25">
@@ -1600,19 +1902,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -1620,19 +1922,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1640,22 +1942,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1663,22 +1965,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1686,22 +1988,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1709,25 +2011,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1735,25 +2037,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,22 +2063,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,22 +2086,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1807,25 +2109,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1833,22 +2135,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1856,22 +2158,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1879,22 +2181,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1902,22 +2204,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1925,22 +2227,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1948,22 +2250,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1971,25 +2273,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1997,25 +2299,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,16 +2325,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2040,22 +2342,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2063,16 +2365,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2080,16 +2382,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2097,22 +2399,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2120,16 +2422,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2137,16 +2439,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2154,16 +2456,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2171,22 +2473,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2194,22 +2496,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2217,22 +2519,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2240,22 +2542,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2263,16 +2565,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2280,16 +2582,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2297,16 +2599,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2314,22 +2616,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2337,16 +2639,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2354,16 +2656,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2371,16 +2673,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2388,39 +2690,45 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>138</v>
+        <v>298</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2428,16 +2736,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2445,22 +2753,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>150</v>
+        <v>298</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2468,25 +2770,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>156</v>
+        <v>298</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2494,22 +2793,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2517,22 +2819,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2540,22 +2842,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2563,16 +2865,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>97</v>
+        <v>298</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2580,22 +2888,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>150</v>
+        <v>298</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2603,16 +2905,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>98</v>
+        <v>298</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2620,22 +2928,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>150</v>
+        <v>298</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2643,22 +2945,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2666,22 +2968,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2689,16 +2991,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2706,39 +3014,33 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2746,22 +3048,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2769,22 +3071,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2792,22 +3094,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2815,22 +3117,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2838,22 +3140,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2861,22 +3163,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2884,22 +3186,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2907,22 +3209,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2930,22 +3232,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2953,22 +3255,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2976,45 +3278,45 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>150</v>
+        <v>298</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3022,22 +3324,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>47</v>
+        <v>298</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3045,22 +3347,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3068,22 +3370,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3091,22 +3393,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>49</v>
+        <v>298</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3114,22 +3416,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>50</v>
+        <v>298</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3137,22 +3439,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3160,16 +3462,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3177,22 +3485,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3200,22 +3502,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3223,16 +3525,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3240,22 +3548,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3263,22 +3565,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3286,22 +3588,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3309,22 +3611,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3332,22 +3634,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3355,22 +3657,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>54</v>
+        <v>298</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3378,22 +3680,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3401,22 +3703,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>56</v>
+        <v>298</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3424,22 +3726,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3447,22 +3749,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3470,22 +3772,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3493,22 +3795,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3516,22 +3818,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3539,22 +3841,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3562,22 +3864,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3585,22 +3887,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3608,22 +3910,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3631,22 +3933,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3654,22 +3956,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3677,22 +3979,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3700,65 +4002,65 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>159</v>
+        <v>59</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>150</v>
+        <v>117</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3766,45 +4068,45 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>161</v>
+        <v>298</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3812,22 +4114,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3835,22 +4137,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3858,19 +4160,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3878,16 +4180,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3895,13 +4197,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3909,16 +4211,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -3926,25 +4228,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3952,22 +4254,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3975,22 +4277,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3998,22 +4300,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4021,22 +4323,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4044,22 +4346,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4067,22 +4369,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4090,22 +4392,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4113,22 +4415,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4136,22 +4438,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4159,22 +4461,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4182,16 +4484,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4199,22 +4501,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4222,22 +4524,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4245,22 +4547,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4268,22 +4570,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4291,22 +4593,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4314,22 +4616,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4337,22 +4639,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4360,22 +4662,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4383,16 +4685,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4400,16 +4702,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4417,16 +4719,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4434,59 +4736,59 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="7">
-        <v>135</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A137" s="7">
-        <v>136</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H137" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4494,19 +4796,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4514,19 +4816,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4534,13 +4836,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4548,13 +4850,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4568,24 +4870,24 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A17BA-FE82-4288-B686-95D9BC7A8AC0}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" customWidth="1"/>
+    <col min="5" max="5" width="110.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" customWidth="1"/>
@@ -4593,28 +4895,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4622,33 +4924,45 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="D3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>346</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4656,16 +4970,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>310</v>
+        <v>306</v>
+      </c>
+      <c r="D4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4673,101 +4993,137 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4775,50 +5131,66 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>314</v>
+      </c>
+      <c r="D12" t="s">
+        <v>371</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+      <c r="D13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>353</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4826,16 +5198,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>373</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4843,16 +5218,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>317</v>
+      </c>
+      <c r="D15" t="s">
+        <v>374</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4860,16 +5238,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
+        <v>318</v>
+      </c>
+      <c r="D16" t="s">
+        <v>375</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4877,16 +5258,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
+        <v>319</v>
+      </c>
+      <c r="D17" t="s">
+        <v>376</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4894,16 +5278,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C18" t="s">
-        <v>324</v>
+        <v>320</v>
+      </c>
+      <c r="D18" t="s">
+        <v>377</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4911,16 +5298,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C19" t="s">
-        <v>325</v>
+        <v>321</v>
+      </c>
+      <c r="D19" t="s">
+        <v>378</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4928,33 +5318,42 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>322</v>
+      </c>
+      <c r="D20" t="s">
+        <v>379</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C21" t="s">
-        <v>327</v>
+        <v>323</v>
+      </c>
+      <c r="D21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4962,33 +5361,45 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
-        <v>328</v>
+        <v>324</v>
+      </c>
+      <c r="D22" t="s">
+        <v>381</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>355</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" t="s">
         <v>302</v>
       </c>
-      <c r="C23" t="s">
-        <v>329</v>
+      <c r="D23" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>357</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4996,16 +5407,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="D24" t="s">
+        <v>383</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5013,16 +5427,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>326</v>
+      </c>
+      <c r="D25" t="s">
+        <v>384</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H25" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5030,16 +5447,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C26" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="D26" t="s">
+        <v>385</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5047,16 +5467,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C27" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="D27" t="s">
+        <v>386</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5064,16 +5487,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C28" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="D28" t="s">
+        <v>387</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5081,16 +5507,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>330</v>
+      </c>
+      <c r="D29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H29" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5098,16 +5530,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>331</v>
+      </c>
+      <c r="D30" t="s">
+        <v>389</v>
       </c>
       <c r="G30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H30" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5115,16 +5550,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C31" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D31" t="s">
+        <v>390</v>
       </c>
       <c r="G31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5132,16 +5570,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s">
-        <v>337</v>
+        <v>333</v>
+      </c>
+      <c r="D32" t="s">
+        <v>391</v>
       </c>
       <c r="G32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H32" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5149,16 +5590,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C33" t="s">
-        <v>338</v>
+        <v>334</v>
+      </c>
+      <c r="D33" t="s">
+        <v>392</v>
       </c>
       <c r="G33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,33 +5610,42 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C34" t="s">
-        <v>339</v>
+        <v>335</v>
+      </c>
+      <c r="D34" t="s">
+        <v>393</v>
       </c>
       <c r="G34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H34" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>394</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H35" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5200,16 +5653,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C36" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="D36" t="s">
+        <v>395</v>
       </c>
       <c r="G36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H36" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5217,16 +5673,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C37" t="s">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="D37" t="s">
+        <v>396</v>
       </c>
       <c r="G37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H37" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5234,16 +5693,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" t="s">
+        <v>397</v>
+      </c>
+      <c r="G38" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" t="s">
         <v>343</v>
-      </c>
-      <c r="G38" t="s">
-        <v>150</v>
-      </c>
-      <c r="H38" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5251,50 +5713,79 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C39" t="s">
-        <v>344</v>
+        <v>340</v>
+      </c>
+      <c r="D39" t="s">
+        <v>398</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H39" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C40" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="D40" t="s">
+        <v>399</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H40" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C41" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+      <c r="D41" t="s">
+        <v>400</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="G41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H41" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" t="s">
+        <v>299</v>
+      </c>
+      <c r="H42" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14492F7-1A6F-4E32-B43E-D856E3156392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6104C7C0-9C8B-4F66-8A4A-9FA733B2B577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="402">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Condition-seizure</t>
   </si>
   <si>
-    <t>Coverage-principal-payer-for-delivery</t>
-  </si>
-  <si>
     <t>Encounter-birth</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Extension-replacement-status</t>
   </si>
   <si>
-    <t>Observation-antibiotics-during-labor</t>
-  </si>
-  <si>
     <t>Observation-autopsy-histological-exam-results-used</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
   </si>
   <si>
     <t>Observation-edit-flag-plurality</t>
-  </si>
-  <si>
-    <t>Observation-estimated-fetal-death-time-point</t>
   </si>
   <si>
     <t>Observation-fetal-presentation</t>
@@ -672,9 +663,6 @@
   </si>
   <si>
     <t>ObservationNoneOfSpecifiedAbnormalConditionsOfNewborn</t>
-  </si>
-  <si>
-    <t>ObservationNoneOfSpecifiedCharacteristicsLaborDelivery</t>
   </si>
   <si>
     <t>ObservationNoneOfSpecifiedMaternalMorbidities</t>
@@ -1399,6 +1387,21 @@
   </si>
   <si>
     <t>vrdr-demographic-coded-content-bundle</t>
+  </si>
+  <si>
+    <t>ObservationNoneOfSpecifiedCharacteristicsLaborAndDelivery</t>
+  </si>
+  <si>
+    <t>Profile ID</t>
+  </si>
+  <si>
+    <t>Observation-fetal-death-time-point</t>
+  </si>
+  <si>
+    <t>Observation-antibiotics-administered-during-labor</t>
+  </si>
+  <si>
+    <t>Coverage-principal-payer-delivery</t>
   </si>
 </sst>
 </file>
@@ -1797,15 +1800,15 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="7"/>
     <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="154" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -1816,28 +1819,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1845,16 +1848,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1862,19 +1865,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1882,19 +1885,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="270" x14ac:dyDescent="0.25">
@@ -1902,19 +1905,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -1922,19 +1925,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1942,22 +1945,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1965,22 +1968,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1988,22 +1991,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2011,25 +2014,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2037,25 +2040,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2063,22 +2066,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2086,22 +2089,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2109,25 +2112,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2135,22 +2138,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2158,22 +2161,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2181,22 +2184,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2204,22 +2207,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2227,22 +2230,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2250,22 +2253,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>16</v>
+        <v>401</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2273,25 +2276,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2299,25 +2302,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2325,16 +2328,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2342,22 +2345,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2365,16 +2368,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2382,16 +2385,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2399,22 +2402,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2422,16 +2425,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2439,16 +2442,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2456,16 +2459,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2473,22 +2476,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2496,22 +2499,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2519,22 +2522,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2542,22 +2545,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2565,16 +2568,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2582,16 +2585,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2599,16 +2602,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2616,22 +2619,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2639,16 +2642,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2656,16 +2659,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2673,16 +2676,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2690,22 +2693,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2713,22 +2716,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2736,16 +2739,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2753,16 +2756,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2770,22 +2773,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>27</v>
+        <v>400</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2793,25 +2796,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2819,22 +2822,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2842,22 +2845,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2865,22 +2868,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,16 +2891,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2905,22 +2908,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2928,16 +2931,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2945,22 +2948,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2968,22 +2971,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2991,22 +2994,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3014,16 +3017,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3031,16 +3034,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3048,22 +3051,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3071,22 +3074,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3094,22 +3097,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3117,22 +3120,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3140,22 +3143,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3163,22 +3166,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3186,22 +3189,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3209,22 +3212,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3232,22 +3235,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3255,22 +3258,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3278,22 +3281,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3301,22 +3304,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3324,22 +3327,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3347,22 +3350,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3370,22 +3373,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3393,22 +3396,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3416,22 +3419,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3439,22 +3442,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3462,22 +3465,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3485,16 +3488,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3502,22 +3505,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3525,22 +3528,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3548,16 +3551,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3565,22 +3568,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3588,22 +3591,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3611,22 +3614,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3634,22 +3637,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3657,22 +3660,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3680,22 +3683,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3703,22 +3706,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3726,22 +3729,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3749,22 +3752,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>202</v>
+        <v>397</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3772,22 +3775,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3795,22 +3798,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3818,22 +3821,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3841,22 +3844,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3864,22 +3867,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3887,22 +3890,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3910,22 +3913,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3933,22 +3936,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3956,22 +3959,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3979,22 +3982,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4002,22 +4005,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4025,22 +4028,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -4048,19 +4051,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4068,22 +4071,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4091,22 +4094,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4114,22 +4117,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4137,22 +4140,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4160,19 +4163,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4180,16 +4183,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4197,13 +4200,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4211,16 +4214,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -4228,25 +4231,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4254,22 +4257,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4277,22 +4280,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4300,22 +4303,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4323,22 +4326,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4346,22 +4349,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4369,22 +4372,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4392,22 +4395,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4415,22 +4418,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4438,22 +4441,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4461,22 +4464,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4484,16 +4487,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4501,22 +4504,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4524,22 +4527,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4547,22 +4550,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4570,22 +4573,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4593,22 +4596,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4616,22 +4619,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4639,22 +4642,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4662,22 +4665,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4685,16 +4688,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4702,16 +4705,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4719,16 +4722,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4736,19 +4739,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -4756,19 +4759,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C136" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H136" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4776,19 +4779,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4796,19 +4799,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4816,19 +4819,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4836,13 +4839,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4850,13 +4853,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4898,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4924,22 +4927,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4947,22 +4950,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4970,22 +4973,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4993,22 +4996,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -5016,22 +5019,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -5039,45 +5042,45 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="255" x14ac:dyDescent="0.25">
@@ -5085,45 +5088,45 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5131,66 +5134,66 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5198,19 +5201,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5218,19 +5221,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D15" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5238,19 +5241,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H16" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5258,19 +5261,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5278,19 +5281,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H18" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5298,19 +5301,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D19" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5318,42 +5321,42 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5361,45 +5364,45 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" t="s">
         <v>298</v>
       </c>
-      <c r="C23" t="s">
-        <v>302</v>
-      </c>
       <c r="D23" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5407,19 +5410,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D24" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H24" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5427,19 +5430,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D25" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H25" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5447,19 +5450,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5467,19 +5470,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D27" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H27" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5487,19 +5490,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C28" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D28" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H28" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5507,22 +5510,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C29" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D29" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H29" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5530,19 +5533,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H30" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5550,19 +5553,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5570,19 +5573,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D32" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5590,19 +5593,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D33" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5610,42 +5613,42 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C34" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H34" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D35" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H35" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5653,19 +5656,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C36" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D36" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H36" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5673,19 +5676,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D37" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5693,19 +5696,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" t="s">
+        <v>393</v>
+      </c>
+      <c r="G38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" t="s">
         <v>339</v>
-      </c>
-      <c r="D38" t="s">
-        <v>397</v>
-      </c>
-      <c r="G38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5713,42 +5716,42 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C39" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D39" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H39" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C40" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D40" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H40" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -5756,22 +5759,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C41" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D41" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H41" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5779,13 +5782,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C42" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H42" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig\input\mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6104C7C0-9C8B-4F66-8A4A-9FA733B2B577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E54324-1C8B-449A-BB76-53C6045BB78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="404">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -255,21 +255,6 @@
     <t>BFDR</t>
   </si>
   <si>
-    <t>Condition-eclampsia-hypertension-vr</t>
-  </si>
-  <si>
-    <t>Condition-gestational-diabetes-vr</t>
-  </si>
-  <si>
-    <t>Condition-gestational-hypertension-vr</t>
-  </si>
-  <si>
-    <t>Condition-prepregnancy-diabetes-vr</t>
-  </si>
-  <si>
-    <t>Condition-prepregnancy-hypertension-vr</t>
-  </si>
-  <si>
     <t>Extension-date-day-vr</t>
   </si>
   <si>
@@ -312,15 +297,9 @@
     <t>Location-injury-vr</t>
   </si>
   <si>
-    <t>Observation-apgar-score-vr</t>
-  </si>
-  <si>
     <t>Observation-autopsy-performed-indicator-vr</t>
   </si>
   <si>
-    <t>Observation-birth-weight-vr</t>
-  </si>
-  <si>
     <t>Observation-cause-of-death-part1-vr</t>
   </si>
   <si>
@@ -333,69 +312,18 @@
     <t>Observation-decedent-pregnancy-vr</t>
   </si>
   <si>
-    <t>Observation-gestational-age-at-delivery-vr</t>
-  </si>
-  <si>
-    <t>Observation-infant-living-vr</t>
-  </si>
-  <si>
     <t>Observation-injury-incident-vr</t>
   </si>
   <si>
-    <t>Observation-last-menstrual-period-vr</t>
-  </si>
-  <si>
     <t>Observation-manner-of-death-vr</t>
   </si>
   <si>
-    <t>Observation-mother-delivery-weight-vr</t>
-  </si>
-  <si>
-    <t>Observation-mother-height-vr</t>
-  </si>
-  <si>
-    <t>Observation-mother-prepregnancy-weight-vr</t>
-  </si>
-  <si>
-    <t>Observation-none-of-specified-pregnancy-risk-factors-vr</t>
-  </si>
-  <si>
-    <t>Observation-number-births-now-dead-vr</t>
-  </si>
-  <si>
-    <t>Observation-number-births-now-living-vr</t>
-  </si>
-  <si>
-    <t>Observation-number-fetal-deaths-this-delivery-vr</t>
-  </si>
-  <si>
-    <t>Observation-number-live-births-this-delivery-vr</t>
-  </si>
-  <si>
-    <t>Observation-number-other-pregnancy-outcomes-vr</t>
-  </si>
-  <si>
-    <t>Observation-number-prenatal-visits-vr</t>
-  </si>
-  <si>
-    <t>Observation-number-previous-cesareans-vr</t>
-  </si>
-  <si>
     <t>Observation-parent-education-level-vr</t>
   </si>
   <si>
     <t>Observation-plurality-vr</t>
   </si>
   <si>
-    <t>Observation-previous-cesarean-vr</t>
-  </si>
-  <si>
-    <t>Observation-previous-preterm-birth-vr</t>
-  </si>
-  <si>
-    <t>Observation-tabulated-ethnicity-vr</t>
-  </si>
-  <si>
     <t>Observation-tobacco-use-contributed-to-death-vr</t>
   </si>
   <si>
@@ -414,16 +342,7 @@
     <t>Practitioner-vr</t>
   </si>
   <si>
-    <t>Procedure-artificial-insemination-vr</t>
-  </si>
-  <si>
-    <t>Procedure-assisted-fertilization-vr</t>
-  </si>
-  <si>
     <t>Procedure-death-certification-vr</t>
-  </si>
-  <si>
-    <t>Procedure-infertility-treatment-vr</t>
   </si>
   <si>
     <t>RelatedPerson-father-natural-vr</t>
@@ -725,27 +644,15 @@
     <t>ProcedureUnplannedHysterectomy</t>
   </si>
   <si>
-    <t>ConditionEclampsiaHypertensionVitalRecords</t>
-  </si>
-  <si>
     <t>PatientMotherVitalRecords</t>
   </si>
   <si>
     <t>PractitionerVitalRecords</t>
   </si>
   <si>
-    <t>ProcedureArtificialInseminationVitalRecords</t>
-  </si>
-  <si>
-    <t>ProcedureAssistedFertilizationVitalRecords</t>
-  </si>
-  <si>
     <t>ProcedureDeathCertificationVitalRecords</t>
   </si>
   <si>
-    <t>ProcedureInfertilityTreatmentVitalRecords</t>
-  </si>
-  <si>
     <t>RelatedpersonFatherNaturalVitalRecords</t>
   </si>
   <si>
@@ -773,69 +680,18 @@
     <t>ObservationTobaccoUseContributedToDeathVitalRecords</t>
   </si>
   <si>
-    <t>ObservationTabulatedEthnicityVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationPreviousPretermBirthVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationPreviousCesareanVitalRecords</t>
-  </si>
-  <si>
     <t>ObservationPluralityVitalRecords</t>
   </si>
   <si>
     <t>ObservationParentEducationLevelVitalRecords</t>
   </si>
   <si>
-    <t>ObservationNumberPreviousCesareansVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationNumberPrenatalVisitsVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationNumberOtherPregnancyOutcomesVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationNumberLiveBirthsThisDeliveryVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationNumberFetalDeathsThisDeliveryVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationNumberBirthsNowLivingVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationNumberBirthsNowDeadVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationNoneOfSpecifiedPregnancyRiskFactorsVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationMotherPrepregnancyWeightVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationMotherHeightVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationMotherDeliveryWeightVitalRecords</t>
-  </si>
-  <si>
     <t>ObservationMannerOfDeathVitalRecords</t>
   </si>
   <si>
-    <t>ObservationLastMenstrualPeriodVitalRecords</t>
-  </si>
-  <si>
     <t>ObservationInjuryIncidentVitalRecords</t>
   </si>
   <si>
-    <t>ObservationInfantLivingVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationGestationalAgeAtDeliveryVitalRecords</t>
-  </si>
-  <si>
     <t>ObservationDecedentPregnancyVitalRecords</t>
   </si>
   <si>
@@ -848,15 +704,9 @@
     <t>ObservationCauseOfDeathPartVitalRecords</t>
   </si>
   <si>
-    <t>ObservationBirthWeightVitalRecords</t>
-  </si>
-  <si>
     <t>ObservationAutopsyPerformedIndicatorVitalRecords</t>
   </si>
   <si>
-    <t>ObservationApgarScoreVitalRecords</t>
-  </si>
-  <si>
     <t>LocationInjuryVitalRecords</t>
   </si>
   <si>
@@ -899,18 +749,6 @@
     <t>ExtensionDateDayVitalRecords</t>
   </si>
   <si>
-    <t>ConditionPrepregnancyHypertensionVitalRecords</t>
-  </si>
-  <si>
-    <t>ConditionPrepregnancyDiabetesVitalRecords</t>
-  </si>
-  <si>
-    <t>ConditionGestationalHypertensionVitalRecords</t>
-  </si>
-  <si>
-    <t>ConditionGestationalDiabetesVitalRecords</t>
-  </si>
-  <si>
     <t>Profile Name Condensed</t>
   </si>
   <si>
@@ -960,9 +798,6 @@
   </si>
   <si>
     <t>odh-UsualWork</t>
-  </si>
-  <si>
-    <t>EmergingIssues</t>
   </si>
   <si>
     <t>Heading</t>
@@ -1332,9 +1167,6 @@
     <t>vrdr-disposition-location</t>
   </si>
   <si>
-    <t>vrdr-emerging-issues</t>
-  </si>
-  <si>
     <t>vrdr-examiner-contacted</t>
   </si>
   <si>
@@ -1402,6 +1234,180 @@
   </si>
   <si>
     <t>Coverage-principal-payer-delivery</t>
+  </si>
+  <si>
+    <t>ConditionEclampsiaHypertension</t>
+  </si>
+  <si>
+    <t>ConditionGestationalDiabetes</t>
+  </si>
+  <si>
+    <t>ConditionGestationalHypertension</t>
+  </si>
+  <si>
+    <t>ConditionPrepregnancyDiabetes</t>
+  </si>
+  <si>
+    <t>ConditionPrepregnancyHypertension</t>
+  </si>
+  <si>
+    <t>ObservationApgarScore</t>
+  </si>
+  <si>
+    <t>ObservationBirthWeight</t>
+  </si>
+  <si>
+    <t>ObservationGestationalAgeAtDelivery</t>
+  </si>
+  <si>
+    <t>ObservationInfantLiving</t>
+  </si>
+  <si>
+    <t>ObservationLastMenstrualPeriod</t>
+  </si>
+  <si>
+    <t>ObservationMotherDeliveryWeight</t>
+  </si>
+  <si>
+    <t>ObservationMotherHeight</t>
+  </si>
+  <si>
+    <t>ObservationMotherPrepregnancyWeight</t>
+  </si>
+  <si>
+    <t>ObservationNoneOfSpecifiedPregnancyRiskFactors</t>
+  </si>
+  <si>
+    <t>ObservationNumberBirthsNowDead</t>
+  </si>
+  <si>
+    <t>ObservationNumberBirthsNowLiving</t>
+  </si>
+  <si>
+    <t>ObservationNumberFetalDeathsThisDelivery</t>
+  </si>
+  <si>
+    <t>ObservationNumberLiveBirthsThisDelivery</t>
+  </si>
+  <si>
+    <t>ObservationNumberOtherPregnancyOutcomes</t>
+  </si>
+  <si>
+    <t>ObservationNumberPrenatalVisits</t>
+  </si>
+  <si>
+    <t>ObservationNumberPreviousCesareans</t>
+  </si>
+  <si>
+    <t>ObservationPreviousCesarean</t>
+  </si>
+  <si>
+    <t>ObservationPreviousPretermBirth</t>
+  </si>
+  <si>
+    <t>ProcedureArtificialInsemination</t>
+  </si>
+  <si>
+    <t>ProcedureAssistedFertilization</t>
+  </si>
+  <si>
+    <t>ProcedureInfertilityTreatment</t>
+  </si>
+  <si>
+    <t>Observation-emerging-issues-vr</t>
+  </si>
+  <si>
+    <t>Procedure-infertility-treatment</t>
+  </si>
+  <si>
+    <t>Procedure-assisted-fertilization</t>
+  </si>
+  <si>
+    <t>Procedure-artificial-insemination</t>
+  </si>
+  <si>
+    <t>Observation-previous-preterm-birth</t>
+  </si>
+  <si>
+    <t>Observation-previous-cesarean</t>
+  </si>
+  <si>
+    <t>Observation-number-previous-cesareans</t>
+  </si>
+  <si>
+    <t>Observation-number-prenatal-visits</t>
+  </si>
+  <si>
+    <t>Observation-number-other-pregnancy-outcomes</t>
+  </si>
+  <si>
+    <t>Observation-number-live-births-this-delivery</t>
+  </si>
+  <si>
+    <t>Observation-number-fetal-deaths-this-delivery</t>
+  </si>
+  <si>
+    <t>Observation-number-births-now-living</t>
+  </si>
+  <si>
+    <t>Observation-number-births-now-dead</t>
+  </si>
+  <si>
+    <t>Observation-none-of-specified-pregnancy-risk-factors</t>
+  </si>
+  <si>
+    <t>Observation-mother-prepregnancy-weight</t>
+  </si>
+  <si>
+    <t>Observation-mother-height</t>
+  </si>
+  <si>
+    <t>Observation-mother-delivery-weight</t>
+  </si>
+  <si>
+    <t>Observation-last-menstrual-period</t>
+  </si>
+  <si>
+    <t>Observation-infant-living</t>
+  </si>
+  <si>
+    <t>Observation-gestational-age-at-delivery</t>
+  </si>
+  <si>
+    <t>Observation-birth-weight</t>
+  </si>
+  <si>
+    <t>Observation-apgar-score</t>
+  </si>
+  <si>
+    <t>Condition-prepregnancy-hypertension</t>
+  </si>
+  <si>
+    <t>Condition-prepregnancy-diabetes</t>
+  </si>
+  <si>
+    <t>Condition-gestational-hypertension</t>
+  </si>
+  <si>
+    <t>Condition-gestational-diabetes</t>
+  </si>
+  <si>
+    <t>Condition-eclampsia-hypertension</t>
+  </si>
+  <si>
+    <t>input-race-and-ethnicity-vr</t>
+  </si>
+  <si>
+    <t>coded-race-and-ethnicity-vr</t>
+  </si>
+  <si>
+    <t>ObservationInputRaceAndEthnicityVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationEmergingIssuesVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationCodedRaceAndEthnicityVitalRecords</t>
   </si>
 </sst>
 </file>
@@ -1800,8 +1806,8 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,28 +1825,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1848,10 +1854,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1865,16 +1871,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>70</v>
@@ -1885,16 +1891,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>70</v>
@@ -1905,16 +1911,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>70</v>
@@ -1925,16 +1931,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>70</v>
@@ -1945,19 +1951,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>70</v>
@@ -1968,19 +1974,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>70</v>
@@ -1991,22 +1997,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2014,22 +2020,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>70</v>
@@ -2040,22 +2046,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>70</v>
@@ -2066,22 +2072,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2089,22 +2095,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2112,22 +2118,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>70</v>
@@ -2138,19 +2144,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>70</v>
@@ -2161,22 +2167,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2184,22 +2190,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2207,19 +2213,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>70</v>
@@ -2230,19 +2236,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>70</v>
@@ -2253,19 +2259,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>70</v>
@@ -2276,22 +2282,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>70</v>
@@ -2302,22 +2308,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>70</v>
@@ -2328,16 +2334,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2345,19 +2351,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>70</v>
@@ -2368,16 +2374,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,16 +2391,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2402,19 +2408,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>70</v>
@@ -2425,16 +2431,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2442,16 +2448,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2459,10 +2465,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>20</v>
@@ -2476,19 +2482,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>70</v>
@@ -2499,19 +2505,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>70</v>
@@ -2522,19 +2528,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>70</v>
@@ -2545,19 +2551,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>70</v>
@@ -2568,16 +2574,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2585,16 +2591,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2602,16 +2608,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2619,22 +2625,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2642,16 +2648,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2659,10 +2665,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>25</v>
@@ -2676,16 +2682,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2693,22 +2699,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2716,22 +2722,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>325</v>
+        <v>401</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>339</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2739,16 +2745,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2756,16 +2762,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2773,19 +2779,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>70</v>
@@ -2796,25 +2802,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2822,19 +2828,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>70</v>
@@ -2845,22 +2851,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2868,22 +2874,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2891,16 +2897,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2908,19 +2914,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>70</v>
@@ -2931,16 +2937,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2948,19 +2954,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>70</v>
@@ -2971,19 +2977,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>70</v>
@@ -2994,19 +3000,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>70</v>
@@ -3017,16 +3023,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3034,16 +3040,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3051,19 +3057,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>70</v>
@@ -3074,19 +3080,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>70</v>
@@ -3097,19 +3103,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>70</v>
@@ -3120,19 +3126,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>70</v>
@@ -3143,19 +3149,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>70</v>
@@ -3166,19 +3172,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>70</v>
@@ -3189,19 +3195,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>70</v>
@@ -3212,19 +3218,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>70</v>
@@ -3235,19 +3241,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>70</v>
@@ -3258,19 +3264,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>70</v>
@@ -3281,19 +3287,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>70</v>
@@ -3304,19 +3310,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>70</v>
@@ -3327,19 +3333,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>70</v>
@@ -3350,19 +3356,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>70</v>
@@ -3373,22 +3379,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>391</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3396,19 +3402,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>70</v>
@@ -3419,19 +3425,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>70</v>
@@ -3442,19 +3448,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>70</v>
@@ -3465,22 +3471,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3488,16 +3494,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3505,19 +3511,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>70</v>
@@ -3528,22 +3534,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>252</v>
+        <v>355</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3551,16 +3557,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3568,19 +3574,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>70</v>
@@ -3591,22 +3597,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>250</v>
+        <v>356</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3614,22 +3620,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>249</v>
+        <v>357</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>387</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3637,19 +3643,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>70</v>
@@ -3660,22 +3666,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>248</v>
+        <v>358</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>386</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3683,19 +3689,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>70</v>
@@ -3706,19 +3712,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>70</v>
@@ -3729,19 +3735,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>70</v>
@@ -3752,19 +3758,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>70</v>
@@ -3775,19 +3781,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>70</v>
@@ -3798,22 +3804,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>247</v>
+        <v>359</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3821,22 +3827,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3844,22 +3850,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>383</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3867,22 +3873,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>382</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3890,22 +3896,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>243</v>
+        <v>363</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3913,22 +3919,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3936,22 +3942,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>379</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3959,22 +3965,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>378</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3982,22 +3988,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4005,19 +4011,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>70</v>
@@ -4028,19 +4034,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>70</v>
@@ -4051,19 +4057,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4071,22 +4077,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>237</v>
+        <v>367</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>377</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4094,22 +4100,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>376</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4117,19 +4123,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>70</v>
@@ -4140,19 +4146,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>70</v>
@@ -4160,185 +4166,188 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>145</v>
+        <v>240</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>297</v>
+        <v>202</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>203</v>
+        <v>369</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>59</v>
+        <v>375</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>70</v>
@@ -4346,68 +4355,68 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>222</v>
+        <v>370</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>124</v>
+        <v>374</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>70</v>
@@ -4415,22 +4424,22 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>70</v>
@@ -4438,22 +4447,22 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>70</v>
@@ -4461,62 +4470,62 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>64</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>70</v>
@@ -4524,22 +4533,22 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>70</v>
@@ -4547,22 +4556,22 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>66</v>
+        <v>373</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>70</v>
@@ -4570,45 +4579,45 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>70</v>
@@ -4616,22 +4625,22 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>70</v>
@@ -4639,139 +4648,119 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>230</v>
+        <v>402</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>152</v>
+        <v>298</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A136" s="11">
-        <v>135</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>339</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4779,16 +4768,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>70</v>
@@ -4799,16 +4788,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>70</v>
@@ -4819,33 +4808,39 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="7">
+    <row r="140" spans="1:8" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>70</v>
+      <c r="B140" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4853,10 +4848,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>70</v>
@@ -4881,8 +4876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A17BA-FE82-4288-B686-95D9BC7A8AC0}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4898,28 +4893,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4927,22 +4922,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4950,22 +4945,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4973,22 +4968,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4996,22 +4991,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -5019,22 +5014,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -5042,22 +5037,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -5065,22 +5060,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="255" x14ac:dyDescent="0.25">
@@ -5088,22 +5083,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -5111,22 +5106,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5134,20 +5129,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -5155,22 +5150,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="330" x14ac:dyDescent="0.25">
@@ -5178,22 +5173,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D13" t="s">
-        <v>368</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>349</v>
-      </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5201,19 +5196,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="D14" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5221,19 +5216,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5241,19 +5236,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="G16" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5261,19 +5256,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5281,19 +5276,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C18" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="D18" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5301,19 +5296,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="D19" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5321,19 +5316,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="D20" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H20" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -5341,22 +5336,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5364,22 +5359,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5387,22 +5382,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D23" t="s">
-        <v>378</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>353</v>
-      </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5410,19 +5405,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="D24" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5430,19 +5425,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5450,19 +5445,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5470,19 +5465,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H27" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5490,19 +5485,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5510,22 +5505,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5533,19 +5528,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="D30" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H30" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5553,19 +5548,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="D31" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5573,19 +5568,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C32" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H32" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5593,19 +5588,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C33" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="D33" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H33" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5613,19 +5608,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="D34" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="225" x14ac:dyDescent="0.25">
@@ -5633,22 +5628,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="D35" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H35" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5656,19 +5651,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="D36" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5676,19 +5671,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C37" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="D37" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H37" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5696,19 +5691,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="D38" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H38" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5716,19 +5711,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="D39" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H39" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="300" x14ac:dyDescent="0.25">
@@ -5736,22 +5731,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -5759,22 +5754,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C41" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="D41" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="G41" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5782,13 +5777,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E54324-1C8B-449A-BB76-53C6045BB78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF13256-622F-4BD1-86BD-CC7EA587D5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
@@ -1437,7 +1437,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1447,6 +1447,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1487,6 +1493,11 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1805,9 +1816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,55 +2026,55 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="F10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>70</v>
       </c>
     </row>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF13256-622F-4BD1-86BD-CC7EA587D5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20D051B-3D3F-4B6E-BEFB-6EDDF8571C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="404">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -1817,8 +1817,8 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,6 +4849,9 @@
       </c>
       <c r="E140" s="12" t="s">
         <v>108</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>106</v>
@@ -4887,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A17BA-FE82-4288-B686-95D9BC7A8AC0}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="B35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20D051B-3D3F-4B6E-BEFB-6EDDF8571C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898D45E-E881-4D38-B5C0-D302FAD9E2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="404">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -1817,8 +1817,8 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,9 +3079,6 @@
       <c r="E59" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H59" s="2" t="s">
         <v>70</v>
       </c>
@@ -3102,9 +3099,6 @@
       <c r="E60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H60" s="2" t="s">
         <v>70</v>
       </c>
@@ -3125,9 +3119,6 @@
       <c r="E61" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H61" s="2" t="s">
         <v>70</v>
       </c>
@@ -3148,9 +3139,6 @@
       <c r="E62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H62" s="2" t="s">
         <v>70</v>
       </c>
@@ -3171,9 +3159,6 @@
       <c r="E63" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H63" s="2" t="s">
         <v>70</v>
       </c>
@@ -3194,9 +3179,6 @@
       <c r="E64" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H64" s="2" t="s">
         <v>70</v>
       </c>
@@ -3217,9 +3199,6 @@
       <c r="E65" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H65" s="2" t="s">
         <v>70</v>
       </c>
@@ -3240,9 +3219,6 @@
       <c r="E66" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H66" s="2" t="s">
         <v>70</v>
       </c>
@@ -3263,9 +3239,6 @@
       <c r="E67" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H67" s="2" t="s">
         <v>70</v>
       </c>
@@ -3286,9 +3259,6 @@
       <c r="E68" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H68" s="2" t="s">
         <v>70</v>
       </c>
@@ -3309,9 +3279,6 @@
       <c r="E69" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H69" s="2" t="s">
         <v>70</v>
       </c>
@@ -3331,9 +3298,6 @@
       </c>
       <c r="E70" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>70</v>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898D45E-E881-4D38-B5C0-D302FAD9E2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D200F-9F28-4606-A4E0-CDAD04888994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
@@ -63,12 +63,6 @@
     <t>Condition-chorioamnionitis</t>
   </si>
   <si>
-    <t>Condition-coded-initiating-fetal-death-cause-or-condition</t>
-  </si>
-  <si>
-    <t>Condition-coded-other-fetal-death-cause-or-condition</t>
-  </si>
-  <si>
     <t>Condition-congenital-anomaly-of-newborn</t>
   </si>
   <si>
@@ -474,12 +468,6 @@
   </si>
   <si>
     <t>CompositionProviderLiveBirthReport</t>
-  </si>
-  <si>
-    <t>ConditionCodedInitiatingFetalDeathCauseOrCondition</t>
-  </si>
-  <si>
-    <t>ConditionCodedOtherFetalDeathCauseOrCondition</t>
   </si>
   <si>
     <t>ConditionCongenitalAnomalyOfNewborn</t>
@@ -1408,6 +1396,18 @@
   </si>
   <si>
     <t>ObservationCodedRaceAndEthnicityVitalRecords</t>
+  </si>
+  <si>
+    <t>ObservationCodedInitiatingFetalDeathCauseOrCondition</t>
+  </si>
+  <si>
+    <t>ObservationCodedOtherFetalDeathCauseOrCondition</t>
+  </si>
+  <si>
+    <t>Observation-coded-other-fetal-death-cause-or-condition</t>
+  </si>
+  <si>
+    <t>Observation-coded-initiating-fetal-death-cause-or-condition</t>
   </si>
 </sst>
 </file>
@@ -1817,8 +1817,8 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,28 +1836,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1865,16 +1865,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1882,19 +1882,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1902,19 +1902,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="270" x14ac:dyDescent="0.25">
@@ -1922,19 +1922,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -1942,19 +1942,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1962,22 +1962,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1985,22 +1985,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2008,22 +2008,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2031,25 +2031,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2057,25 +2057,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2083,22 +2083,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2106,22 +2106,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2129,25 +2129,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2155,22 +2155,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2178,22 +2178,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2201,22 +2201,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2224,22 +2224,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2247,22 +2247,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2270,22 +2270,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2293,25 +2293,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2319,25 +2319,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2345,16 +2345,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2362,22 +2362,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,16 +2385,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2402,16 +2402,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2419,22 +2419,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2442,16 +2442,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2459,16 +2459,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2476,16 +2476,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2493,22 +2493,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2516,22 +2516,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2539,22 +2539,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2562,22 +2562,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2585,16 +2585,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2602,16 +2602,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2619,16 +2619,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2636,22 +2636,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2659,16 +2659,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2676,16 +2676,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2693,16 +2693,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2710,22 +2710,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2733,22 +2733,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2756,16 +2756,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2773,16 +2773,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2790,22 +2790,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2813,25 +2813,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2839,22 +2839,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2862,22 +2862,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2885,22 +2885,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2908,16 +2908,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2925,22 +2925,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2948,16 +2948,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2965,22 +2965,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2988,22 +2988,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3011,22 +3011,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3034,16 +3034,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3051,16 +3051,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3068,19 +3068,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3088,19 +3088,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3108,19 +3108,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3128,19 +3128,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3148,19 +3148,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3168,19 +3168,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3188,19 +3188,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3208,19 +3208,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3228,19 +3228,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3248,19 +3248,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3268,19 +3268,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3288,19 +3288,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3308,22 +3308,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3331,22 +3331,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3354,22 +3354,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3377,22 +3377,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3400,22 +3400,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3423,22 +3423,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3446,22 +3446,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3469,16 +3469,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3486,22 +3486,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3509,22 +3509,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3532,16 +3532,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3549,22 +3549,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3572,22 +3572,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3595,22 +3595,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3618,22 +3618,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3641,22 +3641,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3664,22 +3664,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3687,22 +3687,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3710,22 +3710,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3733,22 +3733,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3756,22 +3756,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3779,22 +3779,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3802,22 +3802,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3825,22 +3825,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3848,22 +3848,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3871,22 +3871,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3917,22 +3917,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3940,22 +3940,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3963,22 +3963,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3986,22 +3986,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4009,22 +4009,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -4032,19 +4032,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4052,22 +4052,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4075,22 +4075,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4098,22 +4098,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4121,22 +4121,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4144,16 +4144,16 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4161,13 +4161,13 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4175,16 +4175,16 @@
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -4192,25 +4192,25 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4218,22 +4218,22 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4241,22 +4241,22 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4264,22 +4264,22 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4287,22 +4287,22 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4310,22 +4310,22 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4333,22 +4333,22 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4356,22 +4356,22 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4379,22 +4379,22 @@
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4402,22 +4402,22 @@
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4425,22 +4425,22 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4448,16 +4448,16 @@
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4465,22 +4465,22 @@
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4488,22 +4488,22 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4511,22 +4511,22 @@
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4534,22 +4534,22 @@
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4557,22 +4557,22 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4580,22 +4580,22 @@
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4603,22 +4603,22 @@
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4626,22 +4626,22 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4649,16 +4649,16 @@
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4666,16 +4666,16 @@
         <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4683,16 +4683,16 @@
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4700,19 +4700,19 @@
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4720,22 +4720,22 @@
         <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4743,19 +4743,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4763,19 +4763,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>136</v>
+        <v>400</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>7</v>
+        <v>403</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4783,19 +4783,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>8</v>
+        <v>402</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -4803,22 +4803,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4826,13 +4826,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4871,28 +4871,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4900,22 +4900,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4923,22 +4923,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4946,22 +4946,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4969,22 +4969,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -4992,22 +4992,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -5015,22 +5015,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -5038,22 +5038,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="255" x14ac:dyDescent="0.25">
@@ -5061,22 +5061,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -5084,22 +5084,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5107,20 +5107,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -5128,22 +5128,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="330" x14ac:dyDescent="0.25">
@@ -5151,22 +5151,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5174,19 +5174,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5194,19 +5194,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5214,19 +5214,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5234,19 +5234,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5254,19 +5254,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5274,19 +5274,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5294,19 +5294,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -5314,22 +5314,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5337,22 +5337,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5360,22 +5360,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5383,19 +5383,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D24" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5403,19 +5403,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5423,19 +5423,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H26" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5443,19 +5443,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H27" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5463,19 +5463,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D28" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H28" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5483,22 +5483,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H29" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5506,19 +5506,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H30" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5526,19 +5526,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H31" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5546,19 +5546,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H32" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5566,19 +5566,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C33" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H33" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5586,19 +5586,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D34" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H34" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="225" x14ac:dyDescent="0.25">
@@ -5606,22 +5606,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D35" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5629,19 +5629,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D36" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H36" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5649,19 +5649,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D37" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5669,19 +5669,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" t="s">
         <v>280</v>
-      </c>
-      <c r="D38" t="s">
-        <v>337</v>
-      </c>
-      <c r="G38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5689,19 +5689,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D39" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H39" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="300" x14ac:dyDescent="0.25">
@@ -5709,22 +5709,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C40" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D40" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -5732,22 +5732,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D41" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H41" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5755,13 +5755,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H42" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-2\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D200F-9F28-4606-A4E0-CDAD04888994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2DBA75-FBC0-4150-8BFA-6CA5A91BC7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR" sheetId="1" r:id="rId1"/>
     <sheet name="VRDR" sheetId="2" r:id="rId2"/>
+    <sheet name="VRCL" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BFDR!$A$1:$H$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VRCL!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="420">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -1408,6 +1410,54 @@
   </si>
   <si>
     <t>Observation-coded-initiating-fetal-death-cause-or-condition</t>
+  </si>
+  <si>
+    <t>ObservationEducationLevelVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionPartialDateAbsentReasonVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionBypassEditFlagVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionCityCodeVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionDistrictCodeVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionPostDirectionalVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionPreDirectionalVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionStreetDesignatorVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-partial-date-absent-reason-vr</t>
+  </si>
+  <si>
+    <t>Extension-bypass-edit-flag-vr</t>
+  </si>
+  <si>
+    <t>Extension-city-code-vr</t>
+  </si>
+  <si>
+    <t>Extension-district-code-vr</t>
+  </si>
+  <si>
+    <t>Extension-post-directional-vr</t>
+  </si>
+  <si>
+    <t>Extension-pre-directional-vr</t>
+  </si>
+  <si>
+    <t>Extension-street-designator-vr</t>
+  </si>
+  <si>
+    <t>Observation-education-level-vr</t>
   </si>
 </sst>
 </file>
@@ -1816,9 +1866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E130" sqref="D130:E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4854,7 +4904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A17BA-FE82-4288-B686-95D9BC7A8AC0}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="B35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E38" sqref="E38:G38"/>
     </sheetView>
   </sheetViews>
@@ -5767,4 +5817,600 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C431E-1590-45F1-9F5F-911CCFABB960}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="154" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H28" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+      <sortCondition ref="A1:A28"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-2\input\mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpassas/Documents/current_projects/NVSS/vital_records_sandbox_ig/input/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2DBA75-FBC0-4150-8BFA-6CA5A91BC7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E188728C-002E-C24E-A55F-5601159CC48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15740" activeTab="2" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BFDR!$A$1:$H$141</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VRCL!$A$1:$H$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VRCL!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="420">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>Observation-manner-of-death-vr</t>
-  </si>
-  <si>
-    <t>Observation-parent-education-level-vr</t>
   </si>
   <si>
     <t>Observation-plurality-vr</t>
@@ -671,9 +668,6 @@
   </si>
   <si>
     <t>ObservationPluralityVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationParentEducationLevelVitalRecords</t>
   </si>
   <si>
     <t>ObservationMannerOfDeathVitalRecords</t>
@@ -1458,6 +1452,12 @@
   </si>
   <si>
     <t>Observation-education-level-vr</t>
+  </si>
+  <si>
+    <t>PatientDecedentFetus</t>
+  </si>
+  <si>
+    <t>Patient-decedent-fetus</t>
   </si>
 </sst>
 </file>
@@ -1866,59 +1866,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="D130:E130"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="7"/>
+    <col min="2" max="2" width="42.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="154" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1927,609 +1927,609 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
@@ -2538,198 +2538,198 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>23</v>
@@ -2738,2148 +2738,2148 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>84</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>85</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>417</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>196</v>
+        <v>418</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>419</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>68</v>
@@ -4908,910 +4908,910 @@
       <selection activeCell="E38" sqref="E38:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" customWidth="1"/>
-    <col min="5" max="5" width="110.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="5" max="5" width="110.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="350" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="320" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" t="s">
         <v>278</v>
       </c>
-      <c r="D40" t="s">
-        <v>335</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G40" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5821,409 +5821,409 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C431E-1590-45F1-9F5F-911CCFABB960}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="7"/>
+    <col min="2" max="2" width="42.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="154" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>188</v>
@@ -6232,44 +6232,44 @@
         <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>191</v>
@@ -6277,137 +6277,97 @@
       <c r="D22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>194</v>
+        <v>396</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>102</v>
+        <v>366</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>195</v>
+        <v>397</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>103</v>
+        <v>394</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H28" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
-      <sortCondition ref="A1:A28"/>
+  <autoFilter ref="A1:H26" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
+      <sortCondition ref="A1:A26"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpassas/Documents/current_projects/NVSS/vital_records_sandbox_ig/input/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E188728C-002E-C24E-A55F-5601159CC48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27777339-3696-DC40-A4E8-3EB208F61A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15740" activeTab="2" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15740" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="416">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Patient-child-vr</t>
   </si>
   <si>
-    <t>Patient-decedent-fetus-vr</t>
-  </si>
-  <si>
     <t>Patient-mother-vr</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
   </si>
   <si>
     <t>RelatedPerson-father-vr</t>
-  </si>
-  <si>
-    <t>RelatedPerson-mother-gestational-vr</t>
   </si>
   <si>
     <t>RelatedPerson-mother-vr</t>
@@ -646,16 +640,10 @@
     <t>RelatedPersonFatherVitalRecords</t>
   </si>
   <si>
-    <t>RelatedpersonMotherGestationalVitalRecords</t>
-  </si>
-  <si>
     <t>RelatedPersonMotherVitalRecords</t>
   </si>
   <si>
     <t>RelatedPersonParentVitalRecords</t>
-  </si>
-  <si>
-    <t>PatientDecedentFetusVitalRecords</t>
   </si>
   <si>
     <t>PatientChildVitalRecords</t>
@@ -1866,9 +1854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132:XFD132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1886,28 +1874,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1915,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1932,16 +1920,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>68</v>
@@ -1952,16 +1940,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>68</v>
@@ -1972,16 +1960,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>68</v>
@@ -1992,16 +1980,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>68</v>
@@ -2012,19 +2000,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>68</v>
@@ -2035,19 +2023,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>68</v>
@@ -2058,19 +2046,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>68</v>
@@ -2081,22 +2069,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>68</v>
@@ -2107,22 +2095,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>68</v>
@@ -2133,19 +2121,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>68</v>
@@ -2156,19 +2144,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>68</v>
@@ -2179,22 +2167,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>68</v>
@@ -2205,19 +2193,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>68</v>
@@ -2228,19 +2216,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>68</v>
@@ -2251,19 +2239,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>68</v>
@@ -2274,19 +2262,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>68</v>
@@ -2297,19 +2285,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>68</v>
@@ -2320,19 +2308,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>68</v>
@@ -2343,22 +2331,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>68</v>
@@ -2369,22 +2357,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>68</v>
@@ -2395,16 +2383,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2412,19 +2400,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>68</v>
@@ -2435,16 +2423,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2452,16 +2440,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2469,19 +2457,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>68</v>
@@ -2492,16 +2480,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2509,16 +2497,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2526,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
@@ -2543,19 +2531,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>68</v>
@@ -2566,19 +2554,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>68</v>
@@ -2589,19 +2577,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>68</v>
@@ -2612,19 +2600,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>68</v>
@@ -2635,16 +2623,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2652,16 +2640,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2669,16 +2657,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2686,22 +2674,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2709,16 +2697,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2726,10 +2714,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>23</v>
@@ -2743,16 +2731,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2760,22 +2748,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2783,22 +2771,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2806,16 +2794,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2823,16 +2811,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2840,19 +2828,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>68</v>
@@ -2863,22 +2851,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>68</v>
@@ -2889,19 +2877,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>68</v>
@@ -2912,22 +2900,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2935,19 +2923,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>68</v>
@@ -2958,16 +2946,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>84</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2975,19 +2963,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>68</v>
@@ -2998,16 +2986,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>85</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3015,19 +3003,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>68</v>
@@ -3038,19 +3026,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>68</v>
@@ -3061,19 +3049,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>68</v>
@@ -3084,16 +3072,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3101,16 +3089,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -3118,16 +3106,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>68</v>
@@ -3138,16 +3126,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>68</v>
@@ -3158,16 +3146,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>68</v>
@@ -3178,16 +3166,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>68</v>
@@ -3198,16 +3186,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>68</v>
@@ -3218,16 +3206,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>68</v>
@@ -3238,16 +3226,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>68</v>
@@ -3258,16 +3246,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>68</v>
@@ -3278,16 +3266,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>68</v>
@@ -3298,16 +3286,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>68</v>
@@ -3318,16 +3306,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>68</v>
@@ -3338,16 +3326,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>68</v>
@@ -3358,19 +3346,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>68</v>
@@ -3381,19 +3369,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>68</v>
@@ -3404,19 +3392,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>68</v>
@@ -3427,19 +3415,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>68</v>
@@ -3450,19 +3438,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>68</v>
@@ -3473,19 +3461,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>68</v>
@@ -3496,19 +3484,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>68</v>
@@ -3519,16 +3507,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3536,19 +3524,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>68</v>
@@ -3559,19 +3547,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>68</v>
@@ -3582,16 +3570,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3599,19 +3587,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>68</v>
@@ -3622,19 +3610,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>68</v>
@@ -3645,19 +3633,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>68</v>
@@ -3668,19 +3656,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>68</v>
@@ -3691,19 +3679,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>68</v>
@@ -3714,19 +3702,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>68</v>
@@ -3737,19 +3725,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>68</v>
@@ -3760,19 +3748,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>68</v>
@@ -3783,19 +3771,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>68</v>
@@ -3806,19 +3794,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>68</v>
@@ -3829,19 +3817,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>68</v>
@@ -3852,19 +3840,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>68</v>
@@ -3875,19 +3863,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>68</v>
@@ -3898,19 +3886,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>68</v>
@@ -3921,19 +3909,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>68</v>
@@ -3944,19 +3932,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>68</v>
@@ -3967,19 +3955,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>68</v>
@@ -3990,19 +3978,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>68</v>
@@ -4013,22 +4001,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -4036,19 +4024,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>68</v>
@@ -4059,19 +4047,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>68</v>
@@ -4082,19 +4070,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -4102,19 +4090,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>68</v>
@@ -4125,19 +4113,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>68</v>
@@ -4148,19 +4136,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>68</v>
@@ -4171,19 +4159,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>68</v>
@@ -4194,16 +4182,16 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -4211,13 +4199,13 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -4225,16 +4213,16 @@
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="128" x14ac:dyDescent="0.2">
@@ -4242,25 +4230,25 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -4268,22 +4256,22 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4291,22 +4279,22 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -4314,22 +4302,22 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -4337,19 +4325,19 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>68</v>
@@ -4360,19 +4348,19 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>68</v>
@@ -4383,19 +4371,19 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>68</v>
@@ -4406,19 +4394,19 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>68</v>
@@ -4429,19 +4417,19 @@
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>68</v>
@@ -4452,19 +4440,19 @@
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>68</v>
@@ -4475,19 +4463,19 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>68</v>
@@ -4498,16 +4486,16 @@
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -4515,19 +4503,19 @@
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>68</v>
@@ -4538,19 +4526,19 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>68</v>
@@ -4561,19 +4549,19 @@
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>68</v>
@@ -4584,19 +4572,19 @@
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>68</v>
@@ -4607,19 +4595,19 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>68</v>
@@ -4630,19 +4618,19 @@
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>68</v>
@@ -4653,19 +4641,19 @@
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>68</v>
@@ -4676,22 +4664,22 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -4699,33 +4687,16 @@
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
-        <v>132</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4733,16 +4704,16 @@
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4750,19 +4721,19 @@
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4770,22 +4741,22 @@
         <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -4793,16 +4764,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>68</v>
@@ -4813,16 +4784,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>68</v>
@@ -4833,16 +4804,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>68</v>
@@ -4853,22 +4824,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4876,10 +4847,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>68</v>
@@ -4904,8 +4875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A17BA-FE82-4288-B686-95D9BC7A8AC0}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:G38"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4921,28 +4892,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4950,22 +4921,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -4973,22 +4944,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4996,22 +4967,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5019,22 +4990,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -5042,22 +5013,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -5065,22 +5036,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
@@ -5088,22 +5059,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="256" x14ac:dyDescent="0.2">
@@ -5111,22 +5082,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
@@ -5134,22 +5105,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5157,20 +5128,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="112" x14ac:dyDescent="0.2">
@@ -5178,22 +5149,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -5201,22 +5172,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -5224,19 +5195,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -5244,19 +5215,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5264,19 +5235,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -5284,19 +5255,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -5304,19 +5275,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -5324,19 +5295,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -5344,19 +5315,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="128" x14ac:dyDescent="0.2">
@@ -5364,22 +5335,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D21" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -5387,22 +5358,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -5410,22 +5381,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -5433,19 +5404,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -5453,19 +5424,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -5473,19 +5444,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -5493,19 +5464,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -5513,19 +5484,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -5533,22 +5504,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -5556,19 +5527,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -5576,19 +5547,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -5596,19 +5567,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D32" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -5616,19 +5587,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -5636,19 +5607,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -5656,22 +5627,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D35" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -5679,19 +5650,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -5699,19 +5670,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D37" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H37" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -5719,19 +5690,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" t="s">
         <v>274</v>
-      </c>
-      <c r="D38" t="s">
-        <v>331</v>
-      </c>
-      <c r="G38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H38" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -5739,19 +5710,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C39" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D39" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -5759,22 +5730,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D40" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="112" x14ac:dyDescent="0.2">
@@ -5782,22 +5753,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H41" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -5805,13 +5776,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H42" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5823,9 +5794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C431E-1590-45F1-9F5F-911CCFABB960}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5843,28 +5814,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -5872,16 +5843,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5889,16 +5860,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5906,22 +5877,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5929,16 +5900,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5946,22 +5917,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5969,16 +5940,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -5986,16 +5957,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6003,16 +5974,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6020,16 +5991,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6037,16 +6008,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6054,16 +6025,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -6071,16 +6042,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -6088,22 +6059,22 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6111,22 +6082,22 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -6134,16 +6105,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="128" x14ac:dyDescent="0.2">
@@ -6151,48 +6122,25 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -6200,22 +6148,22 @@
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -6223,22 +6171,22 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -6246,22 +6194,22 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -6269,16 +6217,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -6286,16 +6234,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6303,19 +6251,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -6323,22 +6271,22 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="144" x14ac:dyDescent="0.2">
@@ -6346,22 +6294,22 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpassas/Documents/current_projects/NVSS/vital_records_sandbox_ig/input/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27777339-3696-DC40-A4E8-3EB208F61A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68805273-EE4B-A748-AF51-06C068214A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15740" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="37380" yWindow="2180" windowWidth="29040" windowHeight="15740" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="416">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -251,30 +251,15 @@
     <t>BFDR</t>
   </si>
   <si>
-    <t>Extension-date-day-vr</t>
-  </si>
-  <si>
-    <t>Extension-date-month-vr</t>
-  </si>
-  <si>
     <t>Extension-date-part-absent-reason-vr</t>
   </si>
   <si>
-    <t>Extension-date-time-vr</t>
-  </si>
-  <si>
-    <t>Extension-date-year-vr</t>
-  </si>
-  <si>
     <t>Extension-partial-date-time-vr</t>
   </si>
   <si>
     <t>Extension-partial-date-vr</t>
   </si>
   <si>
-    <t>Extension-patient-fetal-death-vr</t>
-  </si>
-  <si>
     <t>Extension-relatedperson-birthplace-vr</t>
   </si>
   <si>
@@ -287,39 +272,9 @@
     <t>Extension-within-city-limits-indicator-vr</t>
   </si>
   <si>
-    <t>Location-death-vr</t>
-  </si>
-  <si>
-    <t>Location-injury-vr</t>
-  </si>
-  <si>
     <t>Observation-autopsy-performed-indicator-vr</t>
   </si>
   <si>
-    <t>Observation-cause-of-death-part1-vr</t>
-  </si>
-  <si>
-    <t>Observation-contributing-cause-of-death-part2-vr</t>
-  </si>
-  <si>
-    <t>Observation-death-date-vr</t>
-  </si>
-  <si>
-    <t>Observation-decedent-pregnancy-vr</t>
-  </si>
-  <si>
-    <t>Observation-injury-incident-vr</t>
-  </si>
-  <si>
-    <t>Observation-manner-of-death-vr</t>
-  </si>
-  <si>
-    <t>Observation-plurality-vr</t>
-  </si>
-  <si>
-    <t>Observation-tobacco-use-contributed-to-death-vr</t>
-  </si>
-  <si>
     <t>Parameters-coding-status-values-vr</t>
   </si>
   <si>
@@ -330,9 +285,6 @@
   </si>
   <si>
     <t>Practitioner-vr</t>
-  </si>
-  <si>
-    <t>Procedure-death-certification-vr</t>
   </si>
   <si>
     <t>RelatedPerson-father-natural-vr</t>
@@ -430,10 +382,6 @@
     <t>This includes infections present at the start of pregnancy or confirmed diagnosis during pregnancy with or without documentation of treatment. Documentation of treatment during this pregnancy is adequate if a definitive diagnosis is not present in the available record.</t>
   </si>
   <si>
-    <t>('Reabsorbed' fetuses, those which are not 'delivered' [expulsed or extracted from the mother] should not be counted.) Include all live births and fetal losses resulting from this pregnancy. 
-This profile represents plurality as a characteristic of the pregnancy. For plurality as a characteristic of the patient, see the [patient-multipleBirthTotal extension](http://hl7.org/fhir/StructureDefinition-patient-multipleBirthTotal.html).</t>
-  </si>
-  <si>
     <t>This profile adds further constraints to the [US Core Patient]({{site.data.fhir.ver.hl7fhiruscore}}/StructureDefinition-us-core-patient.html) such as:
  * the [patient-birthPlace](http://hl7.org/fhir/StructureDefinition/patient-birthPlace) extension
  * the [patient-birthTime](http://hl7.org/fhir/StructureDefinition/patient-birthTime) extension
@@ -631,9 +579,6 @@
     <t>PractitionerVitalRecords</t>
   </si>
   <si>
-    <t>ProcedureDeathCertificationVitalRecords</t>
-  </si>
-  <si>
     <t>RelatedpersonFatherNaturalVitalRecords</t>
   </si>
   <si>
@@ -652,39 +597,9 @@
     <t>ParametersCodingStatusValuesVitalRecords</t>
   </si>
   <si>
-    <t>ObservationTobaccoUseContributedToDeathVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationPluralityVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationMannerOfDeathVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationInjuryIncidentVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationDecedentPregnancyVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationDeathDateVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationContributingCauseOfDeathPartVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationCauseOfDeathPartVitalRecords</t>
-  </si>
-  <si>
     <t>ObservationAutopsyPerformedIndicatorVitalRecords</t>
   </si>
   <si>
-    <t>LocationInjuryVitalRecords</t>
-  </si>
-  <si>
-    <t>LocationDeathVitalRecords</t>
-  </si>
-  <si>
     <t>ExtensionWithinCityLimitsIndicatorVitalRecords</t>
   </si>
   <si>
@@ -697,28 +612,13 @@
     <t>ExtensionRelatedpersonBirthplaceVitalRecords</t>
   </si>
   <si>
-    <t>ExtensionPatientFetalDeathVitalRecords</t>
-  </si>
-  <si>
     <t>ExtensionPartialDateVitalRecords</t>
   </si>
   <si>
     <t>ExtensionPartialDateTimeVitalRecords</t>
   </si>
   <si>
-    <t>ExtensionDateYearVitalRecords</t>
-  </si>
-  <si>
-    <t>ExtensionDateTimeVitalRecords</t>
-  </si>
-  <si>
     <t>ExtensionDatePartAbsentReasonVitalRecords</t>
-  </si>
-  <si>
-    <t>ExtensionDateMonthVitalRecords</t>
-  </si>
-  <si>
-    <t>ExtensionDateDayVitalRecords</t>
   </si>
   <si>
     <t>Profile Name Condensed</t>
@@ -1446,6 +1346,106 @@
   </si>
   <si>
     <t>Patient-decedent-fetus</t>
+  </si>
+  <si>
+    <t>ExtensionDateDayVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-day-vr</t>
+  </si>
+  <si>
+    <t>ExtensionDateMonthVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-month-vr</t>
+  </si>
+  <si>
+    <t>ExtensionDateTimeVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-time-vr</t>
+  </si>
+  <si>
+    <t>ExtensionDateYearVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-year-vr</t>
+  </si>
+  <si>
+    <t>ExtensionPatientFetalDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-patient-fetal-death-vr</t>
+  </si>
+  <si>
+    <t>LocationDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Location-death-vr</t>
+  </si>
+  <si>
+    <t>LocationInjuryVitalRecords</t>
+  </si>
+  <si>
+    <t>Location-injury-vr</t>
+  </si>
+  <si>
+    <t>ObservationCauseOfDeathPartVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-cause-of-death-part1-vr</t>
+  </si>
+  <si>
+    <t>ObservationContributingCauseOfDeathPartVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-contributing-cause-of-death-part2-vr</t>
+  </si>
+  <si>
+    <t>ObservationDeathDateVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-death-date-vr</t>
+  </si>
+  <si>
+    <t>ObservationDecedentPregnancyVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-decedent-pregnancy-vr</t>
+  </si>
+  <si>
+    <t>ObservationInjuryIncidentVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-injury-incident-vr</t>
+  </si>
+  <si>
+    <t>ObservationMannerOfDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-manner-of-death-vr</t>
+  </si>
+  <si>
+    <t>ObservationPluralityVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-plurality-vr</t>
+  </si>
+  <si>
+    <t>('Reabsorbed' fetuses, those which are not 'delivered' [expulsed or extracted from the mother] should not be counted.) Include all live births and fetal losses resulting from this pregnancy. 
+This profile represents plurality as a characteristic of the pregnancy. For plurality as a characteristic of the patient, see the [patient-multipleBirthTotal extension](http://hl7.org/fhir/StructureDefinition-patient-multipleBirthTotal.html).</t>
+  </si>
+  <si>
+    <t>ObservationTobaccoUseContributedToDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-tobacco-use-contributed-to-death-vr</t>
+  </si>
+  <si>
+    <t>ProcedureDeathCertificationVitalRecords</t>
+  </si>
+  <si>
+    <t>Procedure-death-certification-vr</t>
   </si>
 </sst>
 </file>
@@ -1855,8 +1855,8 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132:XFD132"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1874,28 +1874,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1903,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>68</v>
@@ -1940,16 +1940,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>68</v>
@@ -1960,16 +1960,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>68</v>
@@ -1980,16 +1980,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>68</v>
@@ -2000,19 +2000,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>68</v>
@@ -2023,19 +2023,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>68</v>
@@ -2046,19 +2046,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>68</v>
@@ -2069,22 +2069,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>68</v>
@@ -2095,22 +2095,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>68</v>
@@ -2121,19 +2121,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>68</v>
@@ -2144,19 +2144,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>68</v>
@@ -2167,22 +2167,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>68</v>
@@ -2193,19 +2193,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>68</v>
@@ -2216,19 +2216,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>68</v>
@@ -2239,19 +2239,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>68</v>
@@ -2262,19 +2262,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>68</v>
@@ -2285,19 +2285,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>68</v>
@@ -2308,19 +2308,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>68</v>
@@ -2331,22 +2331,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>68</v>
@@ -2357,22 +2357,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>68</v>
@@ -2383,16 +2383,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>216</v>
+        <v>383</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>384</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2400,19 +2400,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>68</v>
@@ -2423,16 +2423,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>215</v>
+        <v>385</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>386</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2440,16 +2440,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2457,19 +2457,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>68</v>
@@ -2480,16 +2480,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>213</v>
+        <v>387</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>388</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2497,16 +2497,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>212</v>
+        <v>389</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>390</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
@@ -2531,19 +2531,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>68</v>
@@ -2554,19 +2554,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>68</v>
@@ -2577,19 +2577,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>68</v>
@@ -2600,19 +2600,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>68</v>
@@ -2623,16 +2623,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2640,16 +2640,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2657,16 +2657,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>209</v>
+        <v>391</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2674,22 +2674,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2697,16 +2697,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2714,10 +2714,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>23</v>
@@ -2731,16 +2731,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2748,22 +2748,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2771,22 +2771,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2794,16 +2794,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>204</v>
+        <v>393</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2811,16 +2811,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>203</v>
+        <v>395</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2828,19 +2828,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>68</v>
@@ -2851,22 +2851,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>68</v>
@@ -2877,19 +2877,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>68</v>
@@ -2900,22 +2900,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2923,19 +2923,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>68</v>
@@ -2946,16 +2946,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>201</v>
+        <v>397</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>84</v>
+        <v>398</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2963,19 +2963,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>68</v>
@@ -2986,16 +2986,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3003,19 +3003,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>68</v>
@@ -3026,19 +3026,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>68</v>
@@ -3049,19 +3049,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>68</v>
@@ -3072,16 +3072,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>199</v>
+        <v>401</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>402</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3089,16 +3089,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>198</v>
+        <v>403</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -3106,16 +3106,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>68</v>
@@ -3126,16 +3126,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>68</v>
@@ -3146,16 +3146,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>68</v>
@@ -3166,16 +3166,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>68</v>
@@ -3186,16 +3186,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>68</v>
@@ -3206,16 +3206,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>68</v>
@@ -3226,16 +3226,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>68</v>
@@ -3246,16 +3246,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>68</v>
@@ -3266,16 +3266,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>68</v>
@@ -3286,16 +3286,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>68</v>
@@ -3306,16 +3306,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>68</v>
@@ -3326,16 +3326,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>68</v>
@@ -3346,19 +3346,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>68</v>
@@ -3369,19 +3369,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>68</v>
@@ -3392,19 +3392,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>68</v>
@@ -3415,19 +3415,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>68</v>
@@ -3438,19 +3438,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>68</v>
@@ -3461,19 +3461,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>68</v>
@@ -3484,19 +3484,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>68</v>
@@ -3507,16 +3507,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>197</v>
+        <v>405</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3524,19 +3524,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>68</v>
@@ -3547,19 +3547,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>68</v>
@@ -3570,16 +3570,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>196</v>
+        <v>407</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>408</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3587,19 +3587,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>68</v>
@@ -3610,19 +3610,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>68</v>
@@ -3633,19 +3633,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>68</v>
@@ -3656,19 +3656,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>68</v>
@@ -3679,19 +3679,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>68</v>
@@ -3702,19 +3702,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>68</v>
@@ -3725,19 +3725,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>68</v>
@@ -3748,19 +3748,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>68</v>
@@ -3771,19 +3771,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>68</v>
@@ -3794,19 +3794,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>68</v>
@@ -3817,19 +3817,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>68</v>
@@ -3840,19 +3840,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>68</v>
@@ -3863,19 +3863,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>68</v>
@@ -3886,19 +3886,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>68</v>
@@ -3909,19 +3909,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>68</v>
@@ -3932,19 +3932,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>68</v>
@@ -3955,19 +3955,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>68</v>
@@ -3978,19 +3978,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>68</v>
@@ -4001,22 +4001,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -4024,19 +4024,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>68</v>
@@ -4047,19 +4047,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>68</v>
@@ -4070,19 +4070,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>122</v>
+        <v>411</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -4090,19 +4090,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>68</v>
@@ -4113,19 +4113,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>68</v>
@@ -4136,19 +4136,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>68</v>
@@ -4159,19 +4159,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>68</v>
@@ -4182,16 +4182,16 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>194</v>
+        <v>412</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>413</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -4199,13 +4199,13 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -4213,16 +4213,16 @@
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="128" x14ac:dyDescent="0.2">
@@ -4230,25 +4230,25 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -4256,22 +4256,22 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4279,22 +4279,22 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -4302,22 +4302,22 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -4325,19 +4325,19 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>68</v>
@@ -4348,19 +4348,19 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>68</v>
@@ -4371,19 +4371,19 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>68</v>
@@ -4394,19 +4394,19 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>68</v>
@@ -4417,19 +4417,19 @@
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>68</v>
@@ -4440,19 +4440,19 @@
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>68</v>
@@ -4463,19 +4463,19 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>68</v>
@@ -4486,16 +4486,16 @@
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>415</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -4503,19 +4503,19 @@
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>68</v>
@@ -4526,19 +4526,19 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>68</v>
@@ -4549,19 +4549,19 @@
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>68</v>
@@ -4572,19 +4572,19 @@
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>68</v>
@@ -4595,19 +4595,19 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>68</v>
@@ -4618,19 +4618,19 @@
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>68</v>
@@ -4641,19 +4641,19 @@
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>68</v>
@@ -4664,22 +4664,22 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -4687,16 +4687,16 @@
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4704,16 +4704,16 @@
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4721,19 +4721,19 @@
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4741,22 +4741,22 @@
         <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -4764,16 +4764,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>68</v>
@@ -4784,16 +4784,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>68</v>
@@ -4804,16 +4804,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>68</v>
@@ -4824,22 +4824,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4847,21 +4847,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H141" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H141">
-      <sortCondition ref="A1:A141"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H142">
     <sortCondition ref="A2:A142"/>
   </sortState>
@@ -4875,7 +4870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A17BA-FE82-4288-B686-95D9BC7A8AC0}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4892,28 +4887,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4921,22 +4916,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -4944,22 +4939,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4967,22 +4962,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4990,22 +4985,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -5013,22 +5008,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -5036,22 +5031,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
@@ -5059,22 +5054,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
         <v>241</v>
-      </c>
-      <c r="D8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="256" x14ac:dyDescent="0.2">
@@ -5082,22 +5077,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
@@ -5105,22 +5100,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5128,20 +5123,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="112" x14ac:dyDescent="0.2">
@@ -5149,22 +5144,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -5172,22 +5167,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -5195,19 +5190,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -5215,19 +5210,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5235,19 +5230,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -5255,19 +5250,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -5275,19 +5270,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -5295,19 +5290,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -5315,19 +5310,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="128" x14ac:dyDescent="0.2">
@@ -5335,22 +5330,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -5358,22 +5353,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -5381,22 +5376,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="D23" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -5404,19 +5399,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -5424,19 +5419,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -5444,19 +5439,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="G26" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -5464,19 +5459,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -5484,19 +5479,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -5504,22 +5499,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H29" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -5527,19 +5522,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -5547,19 +5542,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
         <v>230</v>
       </c>
-      <c r="C31" t="s">
-        <v>263</v>
-      </c>
       <c r="D31" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -5567,19 +5562,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -5587,19 +5582,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="D33" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H33" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -5607,19 +5602,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="D34" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H34" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -5627,22 +5622,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H35" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -5650,19 +5645,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="G36" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -5670,19 +5665,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="D37" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H37" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -5690,19 +5685,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="G38" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H38" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -5710,19 +5705,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="D39" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -5730,22 +5725,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="112" x14ac:dyDescent="0.2">
@@ -5753,22 +5748,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H41" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -5776,13 +5771,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="H42" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5792,11 +5787,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C431E-1590-45F1-9F5F-911CCFABB960}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5814,28 +5809,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -5843,16 +5838,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5860,16 +5855,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5877,22 +5872,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5900,16 +5895,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5917,22 +5912,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5940,16 +5935,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -5957,16 +5952,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5974,16 +5969,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5991,16 +5986,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6008,16 +6003,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6025,16 +6020,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -6042,16 +6037,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -6059,22 +6054,22 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6082,22 +6077,22 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -6105,16 +6100,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="128" x14ac:dyDescent="0.2">
@@ -6122,25 +6117,25 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -6148,22 +6143,22 @@
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -6171,22 +6166,22 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -6194,22 +6189,22 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -6217,16 +6212,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -6234,16 +6229,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6251,19 +6246,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -6271,22 +6266,22 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="144" x14ac:dyDescent="0.2">
@@ -6294,22 +6289,73 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpassas/Documents/current_projects/NVSS/vital_records_sandbox_ig/input/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68805273-EE4B-A748-AF51-06C068214A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE1DDC-1B05-8D44-9F49-FF264C8BDF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37380" yWindow="2180" windowWidth="29040" windowHeight="15740" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="38720" yWindow="4920" windowWidth="29040" windowHeight="15740" activeTab="2" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="416">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -1854,9 +1854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5789,9 +5789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C431E-1590-45F1-9F5F-911CCFABB960}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6108,6 +6108,12 @@
       <c r="D16" s="2" t="s">
         <v>380</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>85</v>
       </c>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50BF60-5178-477E-8BDD-B6AA83D8826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB9ACD7-7874-42E4-877C-40B4846DAFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
@@ -1102,9 +1102,6 @@
     <t>Observation-fetal-death-time-point</t>
   </si>
   <si>
-    <t>Observation-antibiotics-administered-during-labor</t>
-  </si>
-  <si>
     <t>Coverage-principal-payer-delivery</t>
   </si>
   <si>
@@ -1446,6 +1443,9 @@
   </si>
   <si>
     <t>Procedure-death-certification-vr</t>
+  </si>
+  <si>
+    <t>Observation-antibiotics-during-labor</t>
   </si>
 </sst>
 </file>
@@ -1855,8 +1855,8 @@
   <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C132" sqref="A132:XFD132"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,10 +2049,10 @@
         <v>197</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>97</v>
@@ -2124,10 +2124,10 @@
         <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>97</v>
@@ -2147,10 +2147,10 @@
         <v>197</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>97</v>
@@ -2219,10 +2219,10 @@
         <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>97</v>
@@ -2242,10 +2242,10 @@
         <v>197</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>97</v>
@@ -2314,7 +2314,7 @@
         <v>187</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>97</v>
@@ -2386,10 +2386,10 @@
         <v>197</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>85</v>
@@ -2426,10 +2426,10 @@
         <v>197</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>85</v>
@@ -2483,10 +2483,10 @@
         <v>197</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>85</v>
@@ -2500,10 +2500,10 @@
         <v>197</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>85</v>
@@ -2660,10 +2660,10 @@
         <v>197</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>85</v>
@@ -2774,10 +2774,10 @@
         <v>197</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>107</v>
@@ -2797,10 +2797,10 @@
         <v>197</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>85</v>
@@ -2814,10 +2814,10 @@
         <v>197</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>85</v>
@@ -2834,7 +2834,7 @@
         <v>185</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>301</v>
+        <v>415</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>97</v>
@@ -2854,10 +2854,10 @@
         <v>197</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>103</v>
@@ -2926,10 +2926,10 @@
         <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>97</v>
@@ -2949,10 +2949,10 @@
         <v>197</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>85</v>
@@ -2989,10 +2989,10 @@
         <v>197</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>85</v>
@@ -3075,10 +3075,10 @@
         <v>197</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>85</v>
@@ -3092,10 +3092,10 @@
         <v>197</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>85</v>
@@ -3395,10 +3395,10 @@
         <v>197</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>97</v>
@@ -3487,10 +3487,10 @@
         <v>197</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>97</v>
@@ -3510,10 +3510,10 @@
         <v>197</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>85</v>
@@ -3550,10 +3550,10 @@
         <v>197</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>97</v>
@@ -3573,10 +3573,10 @@
         <v>197</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>85</v>
@@ -3613,10 +3613,10 @@
         <v>197</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>97</v>
@@ -3636,10 +3636,10 @@
         <v>197</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>97</v>
@@ -3682,10 +3682,10 @@
         <v>197</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>97</v>
@@ -3820,10 +3820,10 @@
         <v>197</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>97</v>
@@ -3843,10 +3843,10 @@
         <v>197</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>97</v>
@@ -3866,10 +3866,10 @@
         <v>197</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>97</v>
@@ -3889,10 +3889,10 @@
         <v>197</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>97</v>
@@ -3912,10 +3912,10 @@
         <v>197</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>97</v>
@@ -3935,10 +3935,10 @@
         <v>197</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>97</v>
@@ -3958,10 +3958,10 @@
         <v>197</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>97</v>
@@ -3981,10 +3981,10 @@
         <v>197</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>97</v>
@@ -4004,10 +4004,10 @@
         <v>197</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>97</v>
@@ -4073,13 +4073,13 @@
         <v>197</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>85</v>
@@ -4093,10 +4093,10 @@
         <v>197</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>97</v>
@@ -4116,10 +4116,10 @@
         <v>197</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>97</v>
@@ -4185,10 +4185,10 @@
         <v>197</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>85</v>
@@ -4259,10 +4259,10 @@
         <v>197</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>97</v>
@@ -4351,10 +4351,10 @@
         <v>197</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>97</v>
@@ -4374,10 +4374,10 @@
         <v>197</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>97</v>
@@ -4489,10 +4489,10 @@
         <v>197</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>85</v>
@@ -4575,10 +4575,10 @@
         <v>197</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>97</v>
@@ -4744,10 +4744,10 @@
         <v>197</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>255</v>
@@ -4787,10 +4787,10 @@
         <v>196</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>97</v>
@@ -4807,10 +4807,10 @@
         <v>196</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>97</v>
@@ -4827,10 +4827,10 @@
         <v>196</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>87</v>
@@ -5379,10 +5379,10 @@
         <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>255</v>
@@ -5841,10 +5841,10 @@
         <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>85</v>
@@ -5938,10 +5938,10 @@
         <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>85</v>
@@ -5955,10 +5955,10 @@
         <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>85</v>
@@ -5972,10 +5972,10 @@
         <v>197</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>85</v>
@@ -6006,10 +6006,10 @@
         <v>197</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>85</v>
@@ -6023,10 +6023,10 @@
         <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>85</v>
@@ -6040,10 +6040,10 @@
         <v>197</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>85</v>
@@ -6057,10 +6057,10 @@
         <v>197</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>107</v>
@@ -6103,10 +6103,10 @@
         <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>97</v>
@@ -6275,10 +6275,10 @@
         <v>197</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>255</v>
@@ -6298,10 +6298,10 @@
         <v>196</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>87</v>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/vital_records_sandbox_ig/input/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50BF60-5178-477E-8BDD-B6AA83D8826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287BA236-74F8-2740-8B02-30671088ACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="25740" yWindow="500" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="VRCL" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BFDR!$A$1:$H$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BFDR!$A$1:$H$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VRCL!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="432">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -1447,12 +1447,80 @@
   <si>
     <t>Procedure-death-certification-vr</t>
   </si>
+  <si>
+    <t>The edit flag extension supports validation as part of the Jurisdiction to NCHS use case and can be ingnored for the provider to jurisdiction use case.  The validation checks  are done at the jurisdiction prior to sending to the National Statistical Agency and are based on the item specific edit criteria specified in the Birth Edit Specifications for the 2003 Proposed Revision of the U.S. Standard Certificate of Birth and the Fetal Death Edit Specifications for the 2003 Revision of the U.S. Standard Report of Fetal Death.</t>
+  </si>
+  <si>
+    <t>This information is not required for submission of a fetal death report, but may be used by some jurisdictions.</t>
+  </si>
+  <si>
+    <t>Presence of this observation indicates that none of the abnormal conditions of newborn specifyable in this IG are reported.</t>
+  </si>
+  <si>
+    <t>Presence of this observation indicates that none of the characteristics of labor and delivery specifyable in this IG are reported.</t>
+  </si>
+  <si>
+    <t>Presence of this observation indicates that none of the maternal morbidities specifyable in this IG are reported.</t>
+  </si>
+  <si>
+    <t>Presence of this observation indicates that none of the pregnancy risk factors specifyable in this IG are reported.</t>
+  </si>
+  <si>
+    <t>ObservationNoneOfSpecifiedObstetricProcedures</t>
+  </si>
+  <si>
+    <t>Observation-none-of-specified-obstetric-procedures</t>
+  </si>
+  <si>
+    <t>Presence of this observation indicates that none of the obstetric procedures specifyable in this IG are reported.</t>
+  </si>
+  <si>
+    <t>ObservationNoneOfSpecifiedInfectionsPresentDuringPregnancy</t>
+  </si>
+  <si>
+    <t>Observation-no-infections-present-during-pregnancy</t>
+  </si>
+  <si>
+    <t>Presence of this observation indicates that none of the infections specifyable in this IG are reported.</t>
+  </si>
+  <si>
+    <t>This profile is only for use in a Vital Records submission to NCHS.  The code indicates both the type of subject (decedent, father or mother) as well as the content of the Observation.  This is intended to make query of the desired observation from a submission bundle easier.
+Submission of race and ethnicity data and return of coded race and ethnicity is done with a uniform approach across all vital records use cases.
+The formats for Fetal Race and Ethnicity (FRE), Mortality Race and Ethnicity(MRE), and Natality Race and Ethnicity (NRE) are described
+in [NCHS Procedures for Multiple-Race and Hispanic Origin Coding](https://www.cdc.gov/nchs/data/dvs/multiple_race_documentation_5-10-04.pdf).</t>
+  </si>
+  <si>
+    <t>This profile is only for use by NCHS to return a coded version of an individual's race and ethnicity to a s ubmitting Jurisdiction.  
+The code indicates both the type of subject (decedent, father or mother) as well as the content of the Observation.  This is intended to make query of the desired observation from a submission bundle easier.
+Submission of race and ethnicity data and return of coded race and ethnicity is done with a uniform approach across all vital records use cases.
+The formats for Fetal Race and Ethnicity (FRE), Mortality Race and Ethnicity(MRE), and Natality Race and Ethnicity (NRE) are described
+in [NCHS Procedures for Multiple-Race and Hispanic Origin Coding](https://www.cdc.gov/nchs/data/dvs/multiple_race_documentation_5-10-04.pdf).</t>
+  </si>
+  <si>
+    <t>The purpose of the extension is to a FHIR date field is to address vital records reporting requirements to be able to express portions of the date that are known when some parts are not known.  
+All four components (year, month, day, time) can be reported/absent independently, resulting in combinations that are not supported by a FHIR date (YYYY, YYYY-MM, YYYY-MM-DD).  
+The additional combinations supported by the extension include:
+YYYY-XX-DD (year &amp; day with no month)
+XXXX-MM-DD (month &amp; day with no year)
+XXXX-XX-DD (day only)
+XXXX-XX-XX (no recorded date)
+This extension SHALL NOT be used to represent any partial date that can be represented using a FHIR date.</t>
+  </si>
+  <si>
+    <t>The purpose of the extension is to address vital records reporting  requirements to express portions of the date that are known when some parts are not known.  All four components (year, month, day, time) can be reported/absent independently, resulting in combinations that are not supported by a FHIR dateTime (YYYY, YYYY-MM, YYYY-MM-DD, or a full dateTime).  The additional combinations supported by the extension include:
+YYYY-XX-DD (year &amp; day with no month)
+XXXX-MM-DD (month &amp; day with no year)
+XXXX-XX-DD (day only)
+XXXX-XX-XX (no recorded date)
+…and all options of the above options with  present/missing &lt;time&gt;
+Each component must be explicitly present or absent.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1470,6 +1538,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1507,7 +1582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1536,6 +1611,9 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1852,27 +1930,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C132" sqref="A132:XFD132"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94:H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="7"/>
+    <col min="2" max="2" width="42.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="154" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>194</v>
       </c>
@@ -1898,7 +1976,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1915,7 +1993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1935,7 +2013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1955,7 +2033,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1975,7 +2053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1995,7 +2073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2018,7 +2096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2041,7 +2119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2064,7 +2142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2090,7 +2168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2116,7 +2194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2139,7 +2217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2162,7 +2240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2188,7 +2266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2211,7 +2289,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2234,7 +2312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2257,7 +2335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2280,7 +2358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2303,7 +2381,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2326,7 +2404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2352,7 +2430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2378,7 +2456,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2395,7 +2473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2418,7 +2496,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2435,7 +2513,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2452,7 +2530,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2475,7 +2553,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2492,7 +2570,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2509,7 +2587,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2526,7 +2604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2549,7 +2627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2572,7 +2650,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2595,7 +2673,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2618,7 +2696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2635,7 +2713,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -2652,7 +2730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2669,7 +2747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2692,7 +2770,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -2709,7 +2787,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2726,7 +2804,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -2743,7 +2821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -2766,7 +2844,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -2789,7 +2867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -2806,7 +2884,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -2823,7 +2901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -2846,7 +2924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -2872,7 +2950,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -2895,7 +2973,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -2918,7 +2996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -2931,6 +3009,9 @@
       <c r="D50" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="E50" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>97</v>
       </c>
@@ -2941,7 +3022,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -2958,7 +3039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -2981,7 +3062,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -2998,7 +3079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -3021,7 +3102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -3044,7 +3125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -3067,7 +3148,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -3084,7 +3165,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -3101,7 +3182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -3121,7 +3202,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -3141,7 +3222,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -3161,7 +3242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -3181,7 +3262,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -3201,7 +3282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -3221,7 +3302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -3241,7 +3322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -3261,7 +3342,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -3281,7 +3362,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -3301,7 +3382,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -3321,7 +3402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -3341,7 +3422,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -3364,7 +3445,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -3387,7 +3468,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -3400,6 +3481,9 @@
       <c r="D73" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="E73" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="F73" s="2" t="s">
         <v>97</v>
       </c>
@@ -3410,7 +3494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -3433,7 +3517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -3456,7 +3540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -3479,7 +3563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -3502,7 +3586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -3519,7 +3603,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -3542,7 +3626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -3565,7 +3649,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -3582,7 +3666,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -3595,6 +3679,9 @@
       <c r="D82" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E82" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="F82" s="2" t="s">
         <v>97</v>
       </c>
@@ -3605,7 +3692,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -3618,6 +3705,9 @@
       <c r="D83" s="2" t="s">
         <v>345</v>
       </c>
+      <c r="E83" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="F83" s="2" t="s">
         <v>97</v>
       </c>
@@ -3628,7 +3718,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -3641,6 +3731,9 @@
       <c r="D84" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="E84" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="F84" s="2" t="s">
         <v>97</v>
       </c>
@@ -3651,7 +3744,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -3674,7 +3767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -3687,6 +3780,9 @@
       <c r="D86" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="E86" s="16" t="s">
+        <v>416</v>
+      </c>
       <c r="F86" s="2" t="s">
         <v>97</v>
       </c>
@@ -3697,7 +3793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -3720,7 +3816,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -3743,7 +3839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -3756,6 +3852,9 @@
       <c r="D89" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="E89" s="3" t="s">
+        <v>418</v>
+      </c>
       <c r="F89" s="2" t="s">
         <v>97</v>
       </c>
@@ -3766,7 +3865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -3779,6 +3878,9 @@
       <c r="D90" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E90" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="F90" s="2" t="s">
         <v>97</v>
       </c>
@@ -3789,7 +3891,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -3802,6 +3904,9 @@
       <c r="D91" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E91" s="16" t="s">
+        <v>420</v>
+      </c>
       <c r="F91" s="2" t="s">
         <v>97</v>
       </c>
@@ -3812,7 +3917,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -3825,6 +3930,9 @@
       <c r="D92" s="2" t="s">
         <v>342</v>
       </c>
+      <c r="E92" s="3" t="s">
+        <v>421</v>
+      </c>
       <c r="F92" s="2" t="s">
         <v>97</v>
       </c>
@@ -3835,1030 +3943,1085 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C93" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C94" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+      <c r="F95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="B96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+      <c r="F96" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+      <c r="F97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="F98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="B99" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
-        <v>97</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="F99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <v>97</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="E100" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="B101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="E101" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="B102" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+      <c r="E102" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="B103" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="F103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="B104" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
+      <c r="F104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A105" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="B105" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
+      <c r="H105" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="B106" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
+      <c r="F106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
+      <c r="F107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C106" s="5" t="s">
+      <c r="B108" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="7">
+      <c r="F108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C107" s="2" t="s">
+      <c r="B109" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+      <c r="F109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
         <v>108</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="B110" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
+      <c r="H110" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
         <v>109</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="B111" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H109" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+      <c r="H111" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
         <v>110</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="B112" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H110" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
+      <c r="H112" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
         <v>111</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="B113" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
+      <c r="F113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="7">
         <v>112</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="B114" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
+      <c r="F114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A115" s="7">
         <v>113</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="B115" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
+      <c r="E115" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
         <v>114</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="B116" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="7">
+      <c r="F116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="7">
         <v>115</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="B117" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="7">
+      <c r="F117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="7">
         <v>116</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="B118" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="7">
+      <c r="F118" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="7">
         <v>117</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C117" s="2" t="s">
+      <c r="B119" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="7">
+      <c r="F119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="7">
         <v>118</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="B120" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="7">
+      <c r="F120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="7">
         <v>119</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="7">
+      <c r="F121" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="7">
         <v>120</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="B122" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="7">
+      <c r="F122" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="7">
         <v>121</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="B123" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="7">
+      <c r="F123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="7">
         <v>122</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C122" s="2" t="s">
+      <c r="B124" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H122" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="7">
+      <c r="H124" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="7">
         <v>123</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C123" s="2" t="s">
+      <c r="B125" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="7">
+      <c r="F125" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="7">
         <v>124</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C124" s="2" t="s">
+      <c r="B126" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="7">
+      <c r="F126" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="7">
         <v>125</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C125" s="2" t="s">
+      <c r="B127" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="7">
+      <c r="F127" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="7">
         <v>126</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C126" s="2" t="s">
+      <c r="B128" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+      <c r="F128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="7">
         <v>127</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C127" s="2" t="s">
+      <c r="B129" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="7">
+      <c r="F129" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="7">
         <v>128</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C128" s="2" t="s">
+      <c r="B130" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
+      <c r="F130" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="7">
         <v>129</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C129" s="2" t="s">
+      <c r="B131" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="7">
+      <c r="F131" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A132" s="7">
         <v>130</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C130" s="2" t="s">
+      <c r="B132" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="7">
+      <c r="E132" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
         <v>131</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C131" s="2" t="s">
+      <c r="B133" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H131" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="7">
+      <c r="H133" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C132" s="2" t="s">
+      <c r="B134" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H132" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="7">
+      <c r="H134" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C133" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H133" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="7">
+      <c r="H135" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C134" s="2" t="s">
+      <c r="B136" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E136" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="7">
+      <c r="G136" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A137" s="7">
         <v>136</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="7">
-        <v>137</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="7">
-        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="7">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A138" s="11">
+      <c r="G139" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A140" s="11">
         <v>139</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B140" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E138" s="12" t="s">
+      <c r="E140" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="7">
+      <c r="G140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H140">
-    <sortCondition ref="A2:A140"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H142">
+    <sortCondition ref="A2:A142"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4874,18 +5037,18 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" customWidth="1"/>
-    <col min="5" max="5" width="110.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="5" max="5" width="110.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>194</v>
       </c>
@@ -4911,7 +5074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4934,7 +5097,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4957,7 +5120,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4980,7 +5143,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5003,7 +5166,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5026,7 +5189,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5049,7 +5212,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5072,7 +5235,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5095,7 +5258,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5118,7 +5281,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5139,7 +5302,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5162,7 +5325,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="350" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5185,7 +5348,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5205,7 +5368,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5225,7 +5388,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5245,7 +5408,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5265,7 +5428,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5285,7 +5448,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5305,7 +5468,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5325,7 +5488,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5348,7 +5511,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5371,7 +5534,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5394,7 +5557,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5414,7 +5577,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5434,7 +5597,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5454,7 +5617,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5474,7 +5637,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5494,7 +5657,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5517,7 +5680,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5537,7 +5700,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5557,7 +5720,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5577,7 +5740,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5597,7 +5760,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5617,7 +5780,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5640,7 +5803,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5660,7 +5823,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5680,7 +5843,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5700,7 +5863,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5720,7 +5883,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="320" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5743,7 +5906,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5766,7 +5929,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5789,25 +5952,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C431E-1590-45F1-9F5F-911CCFABB960}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="7"/>
+    <col min="2" max="2" width="42.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="154" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>194</v>
       </c>
@@ -5833,7 +5996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -5850,7 +6013,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -5863,11 +6026,14 @@
       <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -5890,7 +6056,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -5907,7 +6073,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -5930,7 +6096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -5947,7 +6113,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -5964,7 +6130,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -5981,7 +6147,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -5994,11 +6160,14 @@
       <c r="D10" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -6015,7 +6184,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -6032,7 +6201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -6049,7 +6218,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>16</v>
       </c>
@@ -6063,7 +6232,7 @@
         <v>356</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>97</v>
@@ -6072,7 +6241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>17</v>
       </c>
@@ -6095,7 +6264,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>18</v>
       </c>
@@ -6118,7 +6287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>19</v>
       </c>
@@ -6144,7 +6313,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>21</v>
       </c>
@@ -6167,7 +6336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>22</v>
       </c>
@@ -6190,7 +6359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>23</v>
       </c>
@@ -6213,7 +6382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>24</v>
       </c>
@@ -6230,7 +6399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>25</v>
       </c>
@@ -6247,7 +6416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>26</v>
       </c>
@@ -6267,7 +6436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>27</v>
       </c>
@@ -6290,7 +6459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>28</v>
       </c>
@@ -6304,7 +6473,7 @@
         <v>357</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>87</v>
+        <v>429</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>97</v>
@@ -6313,7 +6482,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -6330,7 +6499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -6347,7 +6516,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>31</v>
       </c>
